--- a/design.xlsx
+++ b/design.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovebird\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovebird\git_project\rayline_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -209,6 +209,37 @@
   </cellStyles>
   <dxfs count="18">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i/>
@@ -228,6 +259,65 @@
     </dxf>
     <dxf>
       <font>
+        <i/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i/>
         <strike val="0"/>
@@ -243,96 +333,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <font>
@@ -533,13 +533,13 @@
     <tableColumn id="3" name="5-7" dataDxfId="12" dataCellStyle="百分比">
       <calculatedColumnFormula>表3[[#This Row],[5-7]]/D$9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="8-19" dataDxfId="1" dataCellStyle="百分比">
+    <tableColumn id="6" name="8-19" dataDxfId="11" dataCellStyle="百分比">
       <calculatedColumnFormula>表3[[#This Row],[8-19]]/F$9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="20-25" dataDxfId="11" dataCellStyle="百分比">
+    <tableColumn id="4" name="20-25" dataDxfId="10" dataCellStyle="百分比">
       <calculatedColumnFormula>表3[[#This Row],[20-25]]/D$10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="26-36" dataDxfId="10" dataCellStyle="百分比">
+    <tableColumn id="5" name="26-36" dataDxfId="9" dataCellStyle="百分比">
       <calculatedColumnFormula>表3[[#This Row],[26-36]]/D$11</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -548,24 +548,24 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="V5:AA11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" dataCellStyle="百分比">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="V5:AA11" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" dataCellStyle="百分比">
   <tableColumns count="6">
-    <tableColumn id="1" name="1-1" dataDxfId="7" dataCellStyle="百分比">
+    <tableColumn id="1" name="1-1" dataDxfId="6" dataCellStyle="百分比">
       <calculatedColumnFormula>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="2-4" dataDxfId="6" dataCellStyle="百分比">
+    <tableColumn id="2" name="2-4" dataDxfId="5" dataCellStyle="百分比">
       <calculatedColumnFormula>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="5-7" dataDxfId="5" dataCellStyle="百分比">
+    <tableColumn id="3" name="5-7" dataDxfId="4" dataCellStyle="百分比">
       <calculatedColumnFormula>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="8-19" dataDxfId="0" dataCellStyle="百分比">
+    <tableColumn id="6" name="8-19" dataDxfId="3" dataCellStyle="百分比">
       <calculatedColumnFormula>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="20-25" dataDxfId="4" dataCellStyle="百分比">
+    <tableColumn id="4" name="20-25" dataDxfId="2" dataCellStyle="百分比">
       <calculatedColumnFormula>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="26-36" dataDxfId="3" dataCellStyle="百分比">
+    <tableColumn id="5" name="26-36" dataDxfId="1" dataCellStyle="百分比">
       <calculatedColumnFormula>表1[[#This Row],[26-36]]/表1[[#This Row],[Sum]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -578,7 +578,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="类型"/>
     <tableColumn id="2" name="特点"/>
-    <tableColumn id="3" name="Block数量" dataDxfId="2"/>
+    <tableColumn id="3" name="Block数量" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -850,7 +850,7 @@
   <dimension ref="B4:AA30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>

--- a/design.xlsx
+++ b/design.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="policy" sheetId="1" r:id="rId1"/>
+    <sheet name="分辨率" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>level</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -49,9 +50,6 @@
     <t>20-25</t>
   </si>
   <si>
-    <t>26-36</t>
-  </si>
-  <si>
     <t>1-1</t>
   </si>
   <si>
@@ -75,9 +73,6 @@
     <t>4点U型</t>
   </si>
   <si>
-    <t>5点</t>
-  </si>
-  <si>
     <t>Block数量</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -107,6 +102,105 @@
   </si>
   <si>
     <t>5-7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>比例</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三星低端</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>iphone5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>iphone4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>iphone6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>iphone6+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>26-31</t>
+  </si>
+  <si>
+    <t>26-31</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5点块状</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>32-34</t>
+  </si>
+  <si>
+    <t>32-34</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5点梅花</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>35-36</t>
+  </si>
+  <si>
+    <t>35-36</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4点3页草</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>37-42</t>
+  </si>
+  <si>
+    <t>37-42</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5点权杖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>43-48</t>
+  </si>
+  <si>
+    <t>43-48</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5点U型</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -177,7 +271,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -202,12 +296,168 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -422,24 +672,6 @@
         <name val="微软雅黑"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -465,19 +697,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>351972</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>157164</xdr:rowOff>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>401258</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>157164</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>71764</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -490,8 +722,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="351972" y="2452689"/>
-          <a:ext cx="3463999" cy="4000500"/>
+          <a:off x="357187" y="3152775"/>
+          <a:ext cx="2628900" cy="4348489"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -504,17 +736,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="F5:M11" totalsRowShown="0">
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="F3:Q17" totalsRowShown="0">
+  <tableColumns count="12">
     <tableColumn id="1" name="level"/>
     <tableColumn id="2" name="1-1"/>
     <tableColumn id="3" name="2-4"/>
     <tableColumn id="4" name="5-7"/>
     <tableColumn id="8" name="8-19"/>
     <tableColumn id="5" name="20-25"/>
-    <tableColumn id="6" name="26-36"/>
-    <tableColumn id="7" name="Sum" dataDxfId="17">
-      <calculatedColumnFormula>SUM(表1[[#This Row],[1-1]:[26-36]])</calculatedColumnFormula>
+    <tableColumn id="6" name="26-31"/>
+    <tableColumn id="12" name="32-34"/>
+    <tableColumn id="11" name="35-36"/>
+    <tableColumn id="10" name="37-42"/>
+    <tableColumn id="9" name="43-48"/>
+    <tableColumn id="7" name="Sum" dataDxfId="26">
+      <calculatedColumnFormula>SUM(表1[[#This Row],[1-1]:[26-31]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -522,25 +758,37 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="O5:T11" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" dataCellStyle="百分比">
-  <tableColumns count="6">
-    <tableColumn id="1" name="1-1" dataDxfId="14" dataCellStyle="百分比">
-      <calculatedColumnFormula>表3[[#This Row],[1-1]]/D$6</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="AD3:AM17" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" dataCellStyle="百分比">
+  <tableColumns count="10">
+    <tableColumn id="1" name="1-1" dataDxfId="23" dataCellStyle="百分比">
+      <calculatedColumnFormula>表3[[#This Row],[1-1]]/D$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="2-4" dataDxfId="13" dataCellStyle="百分比">
-      <calculatedColumnFormula>表3[[#This Row],[2-4]]/D$7</calculatedColumnFormula>
+    <tableColumn id="2" name="2-4" dataDxfId="22" dataCellStyle="百分比">
+      <calculatedColumnFormula>表3[[#This Row],[2-4]]/D$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="5-7" dataDxfId="12" dataCellStyle="百分比">
-      <calculatedColumnFormula>表3[[#This Row],[5-7]]/D$9</calculatedColumnFormula>
+    <tableColumn id="3" name="5-7" dataDxfId="21" dataCellStyle="百分比">
+      <calculatedColumnFormula>表3[[#This Row],[5-7]]/D$7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="8-19" dataDxfId="11" dataCellStyle="百分比">
-      <calculatedColumnFormula>表3[[#This Row],[8-19]]/F$9</calculatedColumnFormula>
+    <tableColumn id="6" name="8-19" dataDxfId="0" dataCellStyle="百分比">
+      <calculatedColumnFormula>表3[[#This Row],[8-19]]/D$7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="20-25" dataDxfId="10" dataCellStyle="百分比">
-      <calculatedColumnFormula>表3[[#This Row],[20-25]]/D$10</calculatedColumnFormula>
+    <tableColumn id="4" name="20-25" dataDxfId="20" dataCellStyle="百分比">
+      <calculatedColumnFormula>表3[[#This Row],[20-25]]/D$8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="26-36" dataDxfId="9" dataCellStyle="百分比">
-      <calculatedColumnFormula>表3[[#This Row],[26-36]]/D$11</calculatedColumnFormula>
+    <tableColumn id="5" name="26-31" dataDxfId="19" dataCellStyle="百分比">
+      <calculatedColumnFormula>表3[[#This Row],[26-31]]/D$9</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="32-34" dataDxfId="4" dataCellStyle="百分比">
+      <calculatedColumnFormula>表3[[#This Row],[32-34]]/D$9</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="35-36" dataDxfId="3" dataCellStyle="百分比">
+      <calculatedColumnFormula>表3[[#This Row],[35-36]]/D$11</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="37-42" dataDxfId="2" dataCellStyle="百分比">
+      <calculatedColumnFormula>表3[[#This Row],[37-42]]/D$12</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="43-48" dataDxfId="1" dataCellStyle="百分比">
+      <calculatedColumnFormula>表3[[#This Row],[43-48]]/D$13</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -548,25 +796,37 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="V5:AA11" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" dataCellStyle="百分比">
-  <tableColumns count="6">
-    <tableColumn id="1" name="1-1" dataDxfId="6" dataCellStyle="百分比">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="S3:AB17" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" dataCellStyle="百分比">
+  <tableColumns count="10">
+    <tableColumn id="1" name="1-1" dataDxfId="16" dataCellStyle="百分比">
       <calculatedColumnFormula>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="2-4" dataDxfId="5" dataCellStyle="百分比">
+    <tableColumn id="2" name="2-4" dataDxfId="15" dataCellStyle="百分比">
       <calculatedColumnFormula>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="5-7" dataDxfId="4" dataCellStyle="百分比">
+    <tableColumn id="3" name="5-7" dataDxfId="14" dataCellStyle="百分比">
       <calculatedColumnFormula>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="8-19" dataDxfId="3" dataCellStyle="百分比">
+    <tableColumn id="6" name="8-19" dataDxfId="13" dataCellStyle="百分比">
       <calculatedColumnFormula>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="20-25" dataDxfId="2" dataCellStyle="百分比">
+    <tableColumn id="4" name="20-25" dataDxfId="12" dataCellStyle="百分比">
       <calculatedColumnFormula>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="26-36" dataDxfId="1" dataCellStyle="百分比">
-      <calculatedColumnFormula>表1[[#This Row],[26-36]]/表1[[#This Row],[Sum]]</calculatedColumnFormula>
+    <tableColumn id="5" name="26-31" dataDxfId="11" dataCellStyle="百分比">
+      <calculatedColumnFormula>表1[[#This Row],[26-31]]/表1[[#This Row],[Sum]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="32-34" dataDxfId="5" dataCellStyle="百分比">
+      <calculatedColumnFormula>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="35-36" dataDxfId="8" dataCellStyle="百分比">
+      <calculatedColumnFormula>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="37-42" dataDxfId="7" dataCellStyle="百分比">
+      <calculatedColumnFormula>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="43-48" dataDxfId="6" dataCellStyle="百分比">
+      <calculatedColumnFormula>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -574,11 +834,26 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="B5:D11" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="B3:D13" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="类型"/>
     <tableColumn id="2" name="特点"/>
-    <tableColumn id="3" name="Block数量" dataDxfId="0"/>
+    <tableColumn id="3" name="Block数量" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="B2:E9" totalsRowShown="0">
+  <autoFilter ref="B2:E9"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="机型"/>
+    <tableColumn id="2" name="宽"/>
+    <tableColumn id="3" name="高"/>
+    <tableColumn id="4" name="比例" dataDxfId="10">
+      <calculatedColumnFormula>表5[[#This Row],[宽]]/表5[[#This Row],[高]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -847,572 +1122,1092 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:AA30"/>
+  <dimension ref="B2:AM28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.1171875" defaultRowHeight="15" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="4.703125" customWidth="1"/>
-    <col min="2" max="2" width="5.8203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.9375" customWidth="1"/>
+    <col min="2" max="2" width="9.17578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.17578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.17578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="5.76171875" customWidth="1"/>
-    <col min="9" max="9" width="5.1171875" customWidth="1"/>
-    <col min="10" max="10" width="4.703125" customWidth="1"/>
-    <col min="11" max="11" width="5.41015625" customWidth="1"/>
-    <col min="12" max="12" width="5.64453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.3515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.3515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.64453125" customWidth="1"/>
-    <col min="17" max="18" width="5" customWidth="1"/>
-    <col min="19" max="20" width="5.64453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.3515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="27" width="6.17578125" customWidth="1"/>
+    <col min="6" max="6" width="5.1171875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="3.9375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.05859375" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="6.05859375" customWidth="1"/>
+    <col min="17" max="17" width="4.8203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.87890625" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="5.29296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.05859375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.87890625" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="4.29296875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.29296875" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="6.05859375" bestFit="1" customWidth="1"/>
+    <col min="36" max="39" width="6.05859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:27" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="B4" s="1" t="s">
+    <row r="2" spans="2:39" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="AD2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+    </row>
+    <row r="3" spans="2:39" x14ac:dyDescent="0.5">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.5">
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="3" t="s">
+    <row r="4" spans="2:39" x14ac:dyDescent="0.5">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="M5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.5">
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
         <f>1-1+1</f>
         <v>1</v>
       </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
+        <v>45</v>
+      </c>
+      <c r="S4" s="2">
+        <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="T4" s="2">
+        <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="U4" s="2">
+        <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V4" s="2">
+        <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W4" s="2">
+        <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
+        <f>表1[[#This Row],[26-31]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2">
+        <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2">
+        <f>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="2">
+        <f>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="2">
+        <f>表3[[#This Row],[1-1]]/D$4</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="AE4" s="2">
+        <f>表3[[#This Row],[2-4]]/D$5</f>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="AF4" s="2">
+        <f>表3[[#This Row],[5-7]]/D$7</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="AG4" s="2">
+        <f>表3[[#This Row],[8-19]]/D$7</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="AH4" s="2">
+        <f>表3[[#This Row],[20-25]]/D$8</f>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="2">
+        <f>表3[[#This Row],[26-31]]/D$9</f>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="2">
+        <f>表3[[#This Row],[32-34]]/D$9</f>
+        <v>0</v>
+      </c>
+      <c r="AK4" s="2">
+        <f>表3[[#This Row],[35-36]]/D$11</f>
+        <v>0</v>
+      </c>
+      <c r="AL4" s="2">
+        <f>表3[[#This Row],[37-42]]/D$12</f>
+        <v>0</v>
+      </c>
+      <c r="AM4" s="2">
+        <f>表3[[#This Row],[43-48]]/D$13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:39" x14ac:dyDescent="0.5">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <f>4-2+1</f>
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>15</v>
+      </c>
+      <c r="J5">
+        <v>35</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
+        <v>67</v>
+      </c>
+      <c r="S5" s="2">
+        <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
+        <v>0.14925373134328357</v>
+      </c>
+      <c r="T5" s="2">
+        <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
+        <v>0.1044776119402985</v>
+      </c>
+      <c r="U5" s="2">
+        <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
+        <v>0.22388059701492538</v>
+      </c>
+      <c r="V5" s="2">
+        <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
+        <v>0.52238805970149249</v>
+      </c>
+      <c r="W5" s="2">
+        <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
+        <f>表1[[#This Row],[26-31]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2">
+        <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2">
+        <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2">
+        <f>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="2">
+        <f>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="2">
+        <f>表3[[#This Row],[1-1]]/D$4</f>
+        <v>0.14925373134328357</v>
+      </c>
+      <c r="AE5" s="2">
+        <f>表3[[#This Row],[2-4]]/D$5</f>
+        <v>3.482587064676617E-2</v>
+      </c>
+      <c r="AF5" s="2">
+        <f>表3[[#This Row],[5-7]]/D$7</f>
+        <v>1.865671641791045E-2</v>
+      </c>
+      <c r="AG5" s="2">
+        <f>表3[[#This Row],[8-19]]/D$7</f>
+        <v>4.3532338308457708E-2</v>
+      </c>
+      <c r="AH5" s="2">
+        <f>表3[[#This Row],[20-25]]/D$8</f>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="2">
+        <f>表3[[#This Row],[26-31]]/D$9</f>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="8">
+        <f>表3[[#This Row],[32-34]]/D$9</f>
+        <v>0</v>
+      </c>
+      <c r="AK5" s="8">
+        <f>表3[[#This Row],[35-36]]/D$11</f>
+        <v>0</v>
+      </c>
+      <c r="AL5" s="8">
+        <f>表3[[#This Row],[37-42]]/D$12</f>
+        <v>0</v>
+      </c>
+      <c r="AM5" s="8">
+        <f>表3[[#This Row],[43-48]]/D$13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
       <c r="F6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>10</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I6">
         <v>15</v>
       </c>
       <c r="J6">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <f>SUM(表1[[#This Row],[1-1]:[26-36]])</f>
-        <v>45</v>
-      </c>
-      <c r="O6" s="2">
-        <f>表3[[#This Row],[1-1]]/D$6</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="P6" s="2">
-        <f>表3[[#This Row],[2-4]]/D$7</f>
-        <v>3.7037037037037035E-2</v>
-      </c>
-      <c r="Q6" s="2">
-        <f>表3[[#This Row],[5-7]]/D$9</f>
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="R6" s="2">
-        <f>表3[[#This Row],[8-19]]/F$9</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
+        <v>74</v>
       </c>
       <c r="S6" s="2">
-        <f>表3[[#This Row],[20-25]]/D$10</f>
-        <v>0</v>
-      </c>
-      <c r="T6" s="2">
-        <f>表3[[#This Row],[26-36]]/D$11</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="2">
-        <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="W6" s="2">
-        <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="X6" s="2">
-        <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Y6" s="2">
-        <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Z6" s="2">
-        <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="2">
-        <f>表1[[#This Row],[26-36]]/表1[[#This Row],[Sum]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.5">
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <f>4-2+1</f>
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>7</v>
-      </c>
-      <c r="I7">
-        <v>15</v>
-      </c>
-      <c r="J7">
-        <v>35</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <f>SUM(表1[[#This Row],[1-1]:[26-36]])</f>
-        <v>67</v>
-      </c>
-      <c r="O7" s="2">
-        <f>表3[[#This Row],[1-1]]/D$6</f>
-        <v>0.14925373134328357</v>
-      </c>
-      <c r="P7" s="2">
-        <f>表3[[#This Row],[2-4]]/D$7</f>
-        <v>3.482587064676617E-2</v>
-      </c>
-      <c r="Q7" s="2">
-        <f>表3[[#This Row],[5-7]]/D$9</f>
-        <v>1.865671641791045E-2</v>
-      </c>
-      <c r="R7" s="2">
-        <f>表3[[#This Row],[8-19]]/F$9</f>
-        <v>0.13059701492537312</v>
-      </c>
-      <c r="S7" s="2">
-        <f>表3[[#This Row],[20-25]]/D$10</f>
-        <v>0</v>
-      </c>
-      <c r="T7" s="2">
-        <f>表3[[#This Row],[26-36]]/D$11</f>
-        <v>0</v>
-      </c>
-      <c r="V7" s="2">
-        <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
-        <v>0.14925373134328357</v>
-      </c>
-      <c r="W7" s="2">
-        <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
-        <v>0.1044776119402985</v>
-      </c>
-      <c r="X7" s="2">
-        <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
-        <v>0.22388059701492538</v>
-      </c>
-      <c r="Y7" s="2">
-        <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
-        <v>0.52238805970149249</v>
-      </c>
-      <c r="Z7" s="2">
-        <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="2">
-        <f>表1[[#This Row],[26-36]]/表1[[#This Row],[Sum]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>10</v>
-      </c>
-      <c r="H8">
-        <v>9</v>
-      </c>
-      <c r="I8">
-        <v>15</v>
-      </c>
-      <c r="J8">
-        <v>30</v>
-      </c>
-      <c r="K8">
-        <v>10</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <f>SUM(表1[[#This Row],[1-1]:[26-36]])</f>
-        <v>74</v>
-      </c>
-      <c r="O8" s="2">
-        <f>表3[[#This Row],[1-1]]/D$6</f>
-        <v>0.13513513513513514</v>
-      </c>
-      <c r="P8" s="2">
-        <f>表3[[#This Row],[2-4]]/D$7</f>
-        <v>4.0540540540540543E-2</v>
-      </c>
-      <c r="Q8" s="2">
-        <f>表3[[#This Row],[5-7]]/D$9</f>
-        <v>1.6891891891891893E-2</v>
-      </c>
-      <c r="R8" s="2">
-        <f>表3[[#This Row],[8-19]]/F$9</f>
-        <v>0.10135135135135136</v>
-      </c>
-      <c r="S8" s="2">
-        <f>表3[[#This Row],[20-25]]/D$10</f>
-        <v>2.2522522522522525E-2</v>
-      </c>
-      <c r="T8" s="2">
-        <f>表3[[#This Row],[26-36]]/D$11</f>
-        <v>0</v>
-      </c>
-      <c r="V8" s="2">
         <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
         <v>0.13513513513513514</v>
       </c>
-      <c r="W8" s="2">
+      <c r="T6" s="2">
         <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
         <v>0.12162162162162163</v>
       </c>
-      <c r="X8" s="2">
+      <c r="U6" s="2">
         <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
         <v>0.20270270270270271</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="V6" s="2">
         <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
         <v>0.40540540540540543</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="W6" s="2">
         <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
         <v>0.13513513513513514</v>
       </c>
-      <c r="AA8" s="2">
-        <f>表1[[#This Row],[26-36]]/表1[[#This Row],[Sum]]</f>
+      <c r="X6" s="2">
+        <f>表1[[#This Row],[26-31]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2">
+        <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2">
+        <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2">
+        <f>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="2">
+        <f>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="2">
+        <f>表3[[#This Row],[1-1]]/D$4</f>
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="AE6" s="2">
+        <f>表3[[#This Row],[2-4]]/D$5</f>
+        <v>4.0540540540540543E-2</v>
+      </c>
+      <c r="AF6" s="2">
+        <f>表3[[#This Row],[5-7]]/D$7</f>
+        <v>1.6891891891891893E-2</v>
+      </c>
+      <c r="AG6" s="2">
+        <f>表3[[#This Row],[8-19]]/D$7</f>
+        <v>3.3783783783783786E-2</v>
+      </c>
+      <c r="AH6" s="2">
+        <f>表3[[#This Row],[20-25]]/D$8</f>
+        <v>2.2522522522522525E-2</v>
+      </c>
+      <c r="AI6" s="2">
+        <f>表3[[#This Row],[26-31]]/D$9</f>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="8">
+        <f>表3[[#This Row],[32-34]]/D$9</f>
+        <v>0</v>
+      </c>
+      <c r="AK6" s="8">
+        <f>表3[[#This Row],[35-36]]/D$11</f>
+        <v>0</v>
+      </c>
+      <c r="AL6" s="8">
+        <f>表3[[#This Row],[37-42]]/D$12</f>
+        <v>0</v>
+      </c>
+      <c r="AM6" s="8">
+        <f>表3[[#This Row],[43-48]]/D$13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="5" t="s">
+    <row r="7" spans="2:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
         <v>20</v>
       </c>
-      <c r="D9">
+      <c r="J7">
+        <v>40</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
+        <v>95</v>
+      </c>
+      <c r="S7" s="2">
+        <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="T7" s="2">
+        <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="U7" s="2">
+        <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="V7" s="2">
+        <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
+        <v>0.42105263157894735</v>
+      </c>
+      <c r="W7" s="2">
+        <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="X7" s="2">
+        <f>表1[[#This Row],[26-31]]/表1[[#This Row],[Sum]]</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="Y7" s="2">
+        <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2">
+        <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2">
+        <f>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2">
+        <f>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="2">
+        <f>表3[[#This Row],[1-1]]/D$4</f>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="AE7" s="2">
+        <f>表3[[#This Row],[2-4]]/D$5</f>
+        <v>3.5087719298245612E-2</v>
+      </c>
+      <c r="AF7" s="2">
+        <f>表3[[#This Row],[5-7]]/D$7</f>
+        <v>1.7543859649122806E-2</v>
+      </c>
+      <c r="AG7" s="2">
+        <f>表3[[#This Row],[8-19]]/D$7</f>
+        <v>3.5087719298245612E-2</v>
+      </c>
+      <c r="AH7" s="2">
+        <f>表3[[#This Row],[20-25]]/D$8</f>
+        <v>1.7543859649122806E-2</v>
+      </c>
+      <c r="AI7" s="2">
+        <f>表3[[#This Row],[26-31]]/D$9</f>
+        <v>8.771929824561403E-3</v>
+      </c>
+      <c r="AJ7" s="8">
+        <f>表3[[#This Row],[32-34]]/D$9</f>
+        <v>0</v>
+      </c>
+      <c r="AK7" s="8">
+        <f>表3[[#This Row],[35-36]]/D$11</f>
+        <v>0</v>
+      </c>
+      <c r="AL7" s="8">
+        <f>表3[[#This Row],[37-42]]/D$12</f>
+        <v>0</v>
+      </c>
+      <c r="AM7" s="8">
+        <f>表3[[#This Row],[43-48]]/D$13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:39" x14ac:dyDescent="0.5">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9">
-        <v>10</v>
-      </c>
-      <c r="H9">
-        <v>10</v>
-      </c>
-      <c r="I9">
-        <v>20</v>
-      </c>
-      <c r="J9">
-        <v>40</v>
-      </c>
-      <c r="K9">
-        <v>10</v>
-      </c>
-      <c r="L9">
-        <v>10</v>
-      </c>
-      <c r="M9">
-        <f>SUM(表1[[#This Row],[1-1]:[26-36]])</f>
-        <v>100</v>
-      </c>
-      <c r="O9" s="2">
-        <f>表3[[#This Row],[1-1]]/D$6</f>
-        <v>0.1</v>
-      </c>
-      <c r="P9" s="2">
-        <f>表3[[#This Row],[2-4]]/D$7</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="Q9" s="2">
-        <f>表3[[#This Row],[5-7]]/D$9</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="R9" s="2">
-        <f>表3[[#This Row],[8-19]]/F$9</f>
-        <v>0.1</v>
-      </c>
-      <c r="S9" s="2">
-        <f>表3[[#This Row],[20-25]]/D$10</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="T9" s="2">
-        <f>表3[[#This Row],[26-36]]/D$11</f>
-        <v>9.0909090909090922E-3</v>
-      </c>
-      <c r="V9" s="2">
-        <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
-        <v>0.1</v>
-      </c>
-      <c r="W9" s="2">
-        <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
-        <v>0.1</v>
-      </c>
-      <c r="X9" s="2">
-        <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
-        <v>0.2</v>
-      </c>
-      <c r="Y9" s="2">
-        <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
-        <v>0.4</v>
-      </c>
-      <c r="Z9" s="2">
-        <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
-        <v>0.1</v>
-      </c>
-      <c r="AA9" s="2">
-        <f>表1[[#This Row],[26-36]]/表1[[#This Row],[Sum]]</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.5">
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10">
+      <c r="D8">
         <f>25-20+1</f>
         <v>6</v>
       </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <v>40</v>
+      </c>
+      <c r="K8">
+        <v>20</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
+        <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
+        <v>105</v>
+      </c>
+      <c r="S8" s="2">
+        <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="T8" s="2">
+        <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="U8" s="2">
+        <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="V8" s="2">
+        <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
+        <v>0.38095238095238093</v>
+      </c>
+      <c r="W8" s="2">
+        <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="X8" s="2">
+        <f>表1[[#This Row],[26-31]]/表1[[#This Row],[Sum]]</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="Y8" s="2">
+        <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
+        <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2">
+        <f>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2">
+        <f>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2">
+        <f>表3[[#This Row],[1-1]]/D$4</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="AE8" s="2">
+        <f>表3[[#This Row],[2-4]]/D$5</f>
+        <v>3.1746031746031744E-2</v>
+      </c>
+      <c r="AF8" s="2">
+        <f>表3[[#This Row],[5-7]]/D$7</f>
+        <v>1.5873015873015872E-2</v>
+      </c>
+      <c r="AG8" s="2">
+        <f>表3[[#This Row],[8-19]]/D$7</f>
+        <v>3.1746031746031744E-2</v>
+      </c>
+      <c r="AH8" s="2">
+        <f>表3[[#This Row],[20-25]]/D$8</f>
+        <v>3.1746031746031744E-2</v>
+      </c>
+      <c r="AI8" s="2">
+        <f>表3[[#This Row],[26-31]]/D$9</f>
+        <v>7.9365079365079361E-3</v>
+      </c>
+      <c r="AJ8" s="8">
+        <f>表3[[#This Row],[32-34]]/D$9</f>
+        <v>0</v>
+      </c>
+      <c r="AK8" s="8">
+        <f>表3[[#This Row],[35-36]]/D$11</f>
+        <v>0</v>
+      </c>
+      <c r="AL8" s="8">
+        <f>表3[[#This Row],[37-42]]/D$12</f>
+        <v>0</v>
+      </c>
+      <c r="AM8" s="8">
+        <f>表3[[#This Row],[43-48]]/D$13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:39" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="F9" s="6">
+        <v>6</v>
+      </c>
+      <c r="G9" s="6">
+        <v>10</v>
+      </c>
+      <c r="H9" s="6">
+        <v>10</v>
+      </c>
+      <c r="I9" s="6">
+        <v>20</v>
+      </c>
+      <c r="J9" s="6">
+        <v>40</v>
+      </c>
+      <c r="K9" s="6">
+        <v>20</v>
+      </c>
+      <c r="L9" s="6">
+        <v>5</v>
+      </c>
+      <c r="M9" s="6">
+        <v>5</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
+        <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
+        <v>105</v>
+      </c>
+      <c r="S9" s="2">
+        <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="T9" s="2">
+        <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="U9" s="2">
+        <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="V9" s="2">
+        <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
+        <v>0.38095238095238093</v>
+      </c>
+      <c r="W9" s="2">
+        <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="X9" s="2">
+        <f>表1[[#This Row],[26-31]]/表1[[#This Row],[Sum]]</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="Y9" s="2">
+        <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="Z9" s="2">
+        <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2">
+        <f>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2">
+        <f>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2">
+        <f>表3[[#This Row],[1-1]]/D$4</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="AE9" s="2">
+        <f>表3[[#This Row],[2-4]]/D$5</f>
+        <v>3.1746031746031744E-2</v>
+      </c>
+      <c r="AF9" s="2">
+        <f>表3[[#This Row],[5-7]]/D$7</f>
+        <v>1.5873015873015872E-2</v>
+      </c>
+      <c r="AG9" s="2">
+        <f>表3[[#This Row],[8-19]]/D$7</f>
+        <v>3.1746031746031744E-2</v>
+      </c>
+      <c r="AH9" s="2">
+        <f>表3[[#This Row],[20-25]]/D$8</f>
+        <v>3.1746031746031744E-2</v>
+      </c>
+      <c r="AI9" s="2">
+        <f>表3[[#This Row],[26-31]]/D$9</f>
+        <v>7.9365079365079361E-3</v>
+      </c>
+      <c r="AJ9" s="8">
+        <f>表3[[#This Row],[32-34]]/D$9</f>
+        <v>7.9365079365079361E-3</v>
+      </c>
+      <c r="AK9" s="8">
+        <f>表3[[#This Row],[35-36]]/D$11</f>
+        <v>0</v>
+      </c>
+      <c r="AL9" s="8">
+        <f>表3[[#This Row],[37-42]]/D$12</f>
+        <v>0</v>
+      </c>
+      <c r="AM9" s="8">
+        <f>表3[[#This Row],[43-48]]/D$13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:39" x14ac:dyDescent="0.5">
+      <c r="B10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3</v>
+      </c>
       <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10" s="6">
+        <v>10</v>
+      </c>
+      <c r="H10" s="6">
+        <v>10</v>
+      </c>
+      <c r="I10" s="6">
+        <v>20</v>
+      </c>
+      <c r="J10" s="6">
+        <v>40</v>
+      </c>
+      <c r="K10" s="6">
+        <v>20</v>
+      </c>
+      <c r="L10">
         <v>5</v>
       </c>
-      <c r="G10">
-        <v>10</v>
-      </c>
-      <c r="H10">
-        <v>10</v>
-      </c>
-      <c r="I10">
-        <v>20</v>
-      </c>
-      <c r="J10">
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4">
+        <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
+        <v>105</v>
+      </c>
+      <c r="S10" s="2">
+        <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="T10" s="2">
+        <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="U10" s="2">
+        <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="V10" s="2">
+        <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
+        <v>0.38095238095238093</v>
+      </c>
+      <c r="W10" s="2">
+        <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="X10" s="2">
+        <f>表1[[#This Row],[26-31]]/表1[[#This Row],[Sum]]</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="Y10" s="2">
+        <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="Z10" s="2">
+        <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="AA10" s="2">
+        <f>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="2">
+        <f>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="2">
+        <f>表3[[#This Row],[1-1]]/D$4</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="AE10" s="2">
+        <f>表3[[#This Row],[2-4]]/D$5</f>
+        <v>3.1746031746031744E-2</v>
+      </c>
+      <c r="AF10" s="2">
+        <f>表3[[#This Row],[5-7]]/D$7</f>
+        <v>1.5873015873015872E-2</v>
+      </c>
+      <c r="AG10" s="2">
+        <f>表3[[#This Row],[8-19]]/D$7</f>
+        <v>3.1746031746031744E-2</v>
+      </c>
+      <c r="AH10" s="2">
+        <f>表3[[#This Row],[20-25]]/D$8</f>
+        <v>3.1746031746031744E-2</v>
+      </c>
+      <c r="AI10" s="2">
+        <f>表3[[#This Row],[26-31]]/D$9</f>
+        <v>7.9365079365079361E-3</v>
+      </c>
+      <c r="AJ10" s="8">
+        <f>表3[[#This Row],[32-34]]/D$9</f>
+        <v>7.9365079365079361E-3</v>
+      </c>
+      <c r="AK10" s="8">
+        <f>表3[[#This Row],[35-36]]/D$11</f>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="AL10" s="8">
+        <f>表3[[#This Row],[37-42]]/D$12</f>
+        <v>0</v>
+      </c>
+      <c r="AM10" s="8">
+        <f>表3[[#This Row],[43-48]]/D$13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:39" x14ac:dyDescent="0.5">
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
         <v>40</v>
       </c>
-      <c r="K10">
-        <v>20</v>
-      </c>
-      <c r="L10">
-        <v>10</v>
-      </c>
-      <c r="M10" s="4">
-        <f>SUM(表1[[#This Row],[1-1]:[26-36]])</f>
-        <v>110</v>
-      </c>
-      <c r="O10" s="2">
-        <f>表3[[#This Row],[1-1]]/D$6</f>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="P10" s="2">
-        <f>表3[[#This Row],[2-4]]/D$7</f>
-        <v>3.0303030303030304E-2</v>
-      </c>
-      <c r="Q10" s="2">
-        <f>表3[[#This Row],[5-7]]/D$9</f>
-        <v>1.5151515151515152E-2</v>
-      </c>
-      <c r="R10" s="2">
-        <f>表3[[#This Row],[8-19]]/F$9</f>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="S10" s="2">
-        <f>表3[[#This Row],[20-25]]/D$10</f>
-        <v>3.0303030303030304E-2</v>
-      </c>
-      <c r="T10" s="2">
-        <f>表3[[#This Row],[26-36]]/D$11</f>
-        <v>8.2644628099173556E-3</v>
-      </c>
-      <c r="V10" s="2">
-        <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="W10" s="2">
-        <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="X10" s="2">
-        <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="Y10" s="2">
-        <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="Z10" s="2">
-        <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="AA10" s="2">
-        <f>表1[[#This Row],[26-36]]/表1[[#This Row],[Sum]]</f>
-        <v>9.0909090909090912E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:27" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11">
-        <f>36-26+1</f>
-        <v>11</v>
-      </c>
-      <c r="F11" s="6">
-        <v>6</v>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
       </c>
       <c r="G11" s="6">
         <v>10</v>
@@ -1429,75 +2224,872 @@
       <c r="K11" s="6">
         <v>20</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4">
+        <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
+        <v>105</v>
+      </c>
+      <c r="S11" s="2">
+        <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="T11" s="2">
+        <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="U11" s="2">
+        <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="V11" s="2">
+        <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
+        <v>0.38095238095238093</v>
+      </c>
+      <c r="W11" s="2">
+        <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="X11" s="2">
+        <f>表1[[#This Row],[26-31]]/表1[[#This Row],[Sum]]</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="Y11" s="2">
+        <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="Z11" s="2">
+        <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="AA11" s="2">
+        <f>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="AB11" s="2">
+        <f>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="2">
+        <f>表3[[#This Row],[1-1]]/D$4</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="AE11" s="2">
+        <f>表3[[#This Row],[2-4]]/D$5</f>
+        <v>3.1746031746031744E-2</v>
+      </c>
+      <c r="AF11" s="2">
+        <f>表3[[#This Row],[5-7]]/D$7</f>
+        <v>1.5873015873015872E-2</v>
+      </c>
+      <c r="AG11" s="2">
+        <f>表3[[#This Row],[8-19]]/D$7</f>
+        <v>3.1746031746031744E-2</v>
+      </c>
+      <c r="AH11" s="2">
+        <f>表3[[#This Row],[20-25]]/D$8</f>
+        <v>3.1746031746031744E-2</v>
+      </c>
+      <c r="AI11" s="2">
+        <f>表3[[#This Row],[26-31]]/D$9</f>
+        <v>7.9365079365079361E-3</v>
+      </c>
+      <c r="AJ11" s="8">
+        <f>表3[[#This Row],[32-34]]/D$9</f>
+        <v>7.9365079365079361E-3</v>
+      </c>
+      <c r="AK11" s="8">
+        <f>表3[[#This Row],[35-36]]/D$11</f>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="AL11" s="8">
+        <f>表3[[#This Row],[37-42]]/D$12</f>
+        <v>7.9365079365079361E-3</v>
+      </c>
+      <c r="AM11" s="8">
+        <f>表3[[#This Row],[43-48]]/D$13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:39" x14ac:dyDescent="0.5">
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="4">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12" s="6">
+        <v>10</v>
+      </c>
+      <c r="H12" s="6">
+        <v>10</v>
+      </c>
+      <c r="I12" s="6">
         <v>20</v>
       </c>
-      <c r="M11" s="7">
-        <f>SUM(表1[[#This Row],[1-1]:[26-36]])</f>
-        <v>120</v>
-      </c>
-      <c r="O11" s="2">
-        <f>表3[[#This Row],[1-1]]/D$6</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="P11" s="2">
-        <f>表3[[#This Row],[2-4]]/D$7</f>
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="Q11" s="2">
-        <f>表3[[#This Row],[5-7]]/D$9</f>
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="R11" s="2">
-        <f>表3[[#This Row],[8-19]]/F$9</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="S11" s="2">
-        <f>表3[[#This Row],[20-25]]/D$10</f>
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="T11" s="2">
-        <f>表3[[#This Row],[26-36]]/D$11</f>
-        <v>1.515151515151515E-2</v>
-      </c>
-      <c r="V11" s="2">
+      <c r="J12" s="6">
+        <v>40</v>
+      </c>
+      <c r="K12" s="6">
+        <v>20</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="4">
+        <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
+        <v>105</v>
+      </c>
+      <c r="S12" s="2">
         <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="W11" s="2">
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="T12" s="2">
         <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="X11" s="2">
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="U12" s="2">
         <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="Y11" s="2">
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="V12" s="2">
         <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Z11" s="2">
+        <v>0.38095238095238093</v>
+      </c>
+      <c r="W12" s="2">
         <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="AA11" s="2">
-        <f>表1[[#This Row],[26-36]]/表1[[#This Row],[Sum]]</f>
-        <v>0.16666666666666666</v>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="X12" s="2">
+        <f>表1[[#This Row],[26-31]]/表1[[#This Row],[Sum]]</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="Y12" s="2">
+        <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="Z12" s="2">
+        <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="AA12" s="2">
+        <f>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="AB12" s="2">
+        <f>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="AD12" s="2">
+        <f>表3[[#This Row],[1-1]]/D$4</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="AE12" s="2">
+        <f>表3[[#This Row],[2-4]]/D$5</f>
+        <v>3.1746031746031744E-2</v>
+      </c>
+      <c r="AF12" s="2">
+        <f>表3[[#This Row],[5-7]]/D$7</f>
+        <v>1.5873015873015872E-2</v>
+      </c>
+      <c r="AG12" s="2">
+        <f>表3[[#This Row],[8-19]]/D$7</f>
+        <v>3.1746031746031744E-2</v>
+      </c>
+      <c r="AH12" s="2">
+        <f>表3[[#This Row],[20-25]]/D$8</f>
+        <v>3.1746031746031744E-2</v>
+      </c>
+      <c r="AI12" s="2">
+        <f>表3[[#This Row],[26-31]]/D$9</f>
+        <v>7.9365079365079361E-3</v>
+      </c>
+      <c r="AJ12" s="8">
+        <f>表3[[#This Row],[32-34]]/D$9</f>
+        <v>7.9365079365079361E-3</v>
+      </c>
+      <c r="AK12" s="8">
+        <f>表3[[#This Row],[35-36]]/D$11</f>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="AL12" s="8">
+        <f>表3[[#This Row],[37-42]]/D$12</f>
+        <v>7.9365079365079361E-3</v>
+      </c>
+      <c r="AM12" s="8">
+        <f>表3[[#This Row],[43-48]]/D$13</f>
+        <v>7.9365079365079361E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:27" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+    <row r="13" spans="2:39" x14ac:dyDescent="0.5">
+      <c r="B13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="4">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>11</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="J13">
+        <v>40</v>
+      </c>
+      <c r="K13">
+        <v>20</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="4">
+        <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
+        <v>112</v>
+      </c>
+      <c r="S13" s="2">
+        <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="T13" s="2">
+        <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="U13" s="2">
+        <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="V13" s="2">
+        <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="W13" s="2">
+        <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="X13" s="2">
+        <f>表1[[#This Row],[26-31]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Y13" s="2">
+        <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
+        <v>4.4642857142857144E-2</v>
+      </c>
+      <c r="Z13" s="2">
+        <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
+        <v>4.4642857142857144E-2</v>
+      </c>
+      <c r="AA13" s="2">
+        <f>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</f>
+        <v>4.4642857142857144E-2</v>
+      </c>
+      <c r="AB13" s="2">
+        <f>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</f>
+        <v>4.4642857142857144E-2</v>
+      </c>
+      <c r="AD13" s="2">
+        <f>表3[[#This Row],[1-1]]/D$4</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="AE13" s="2">
+        <f>表3[[#This Row],[2-4]]/D$5</f>
+        <v>3.273809523809524E-2</v>
+      </c>
+      <c r="AF13" s="2">
+        <f>表3[[#This Row],[5-7]]/D$7</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AG13" s="2">
+        <f>表3[[#This Row],[8-19]]/D$7</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AH13" s="2">
+        <f>表3[[#This Row],[20-25]]/D$8</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AI13" s="2">
+        <f>表3[[#This Row],[26-31]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AJ13" s="8">
+        <f>表3[[#This Row],[32-34]]/D$9</f>
+        <v>7.4404761904761909E-3</v>
+      </c>
+      <c r="AK13" s="8">
+        <f>表3[[#This Row],[35-36]]/D$11</f>
+        <v>2.2321428571428572E-2</v>
+      </c>
+      <c r="AL13" s="8">
+        <f>表3[[#This Row],[37-42]]/D$12</f>
+        <v>7.4404761904761909E-3</v>
+      </c>
+      <c r="AM13" s="8">
+        <f>表3[[#This Row],[43-48]]/D$13</f>
+        <v>7.4404761904761909E-3</v>
+      </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.5">
-      <c r="B15" s="5"/>
+    <row r="14" spans="2:39" x14ac:dyDescent="0.5">
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14" s="6">
+        <v>11</v>
+      </c>
+      <c r="H14" s="6">
+        <v>11</v>
+      </c>
+      <c r="I14" s="6">
+        <v>20</v>
+      </c>
+      <c r="J14" s="6">
+        <v>40</v>
+      </c>
+      <c r="K14" s="6">
+        <v>20</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14">
+        <v>10</v>
+      </c>
+      <c r="N14">
+        <v>5</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="4">
+        <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
+        <v>112</v>
+      </c>
+      <c r="S14" s="2">
+        <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="T14" s="2">
+        <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="U14" s="2">
+        <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="V14" s="2">
+        <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="W14" s="2">
+        <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="X14" s="2">
+        <f>表1[[#This Row],[26-31]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Y14" s="2">
+        <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Z14" s="2">
+        <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
+        <v>4.4642857142857144E-2</v>
+      </c>
+      <c r="AA14" s="2">
+        <f>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</f>
+        <v>4.4642857142857144E-2</v>
+      </c>
+      <c r="AB14" s="2">
+        <f>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</f>
+        <v>4.4642857142857144E-2</v>
+      </c>
+      <c r="AD14" s="2">
+        <f>表3[[#This Row],[1-1]]/D$4</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="AE14" s="2">
+        <f>表3[[#This Row],[2-4]]/D$5</f>
+        <v>3.273809523809524E-2</v>
+      </c>
+      <c r="AF14" s="2">
+        <f>表3[[#This Row],[5-7]]/D$7</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AG14" s="2">
+        <f>表3[[#This Row],[8-19]]/D$7</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AH14" s="2">
+        <f>表3[[#This Row],[20-25]]/D$8</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AI14" s="2">
+        <f>表3[[#This Row],[26-31]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AJ14" s="8">
+        <f>表3[[#This Row],[32-34]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AK14" s="8">
+        <f>表3[[#This Row],[35-36]]/D$11</f>
+        <v>2.2321428571428572E-2</v>
+      </c>
+      <c r="AL14" s="8">
+        <f>表3[[#This Row],[37-42]]/D$12</f>
+        <v>7.4404761904761909E-3</v>
+      </c>
+      <c r="AM14" s="8">
+        <f>表3[[#This Row],[43-48]]/D$13</f>
+        <v>7.4404761904761909E-3</v>
+      </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B22" s="3"/>
+    <row r="15" spans="2:39" x14ac:dyDescent="0.5">
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15" s="6">
+        <v>11</v>
+      </c>
+      <c r="H15" s="6">
+        <v>11</v>
+      </c>
+      <c r="I15" s="6">
+        <v>20</v>
+      </c>
+      <c r="J15" s="6">
+        <v>40</v>
+      </c>
+      <c r="K15" s="6">
+        <v>20</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <v>10</v>
+      </c>
+      <c r="O15">
+        <v>5</v>
+      </c>
+      <c r="P15">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="4">
+        <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
+        <v>112</v>
+      </c>
+      <c r="S15" s="2">
+        <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="T15" s="2">
+        <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="U15" s="2">
+        <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="V15" s="2">
+        <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="W15" s="2">
+        <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="X15" s="2">
+        <f>表1[[#This Row],[26-31]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Y15" s="2">
+        <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Z15" s="2">
+        <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="AA15" s="2">
+        <f>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</f>
+        <v>4.4642857142857144E-2</v>
+      </c>
+      <c r="AB15" s="2">
+        <f>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</f>
+        <v>4.4642857142857144E-2</v>
+      </c>
+      <c r="AD15" s="2">
+        <f>表3[[#This Row],[1-1]]/D$4</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="AE15" s="2">
+        <f>表3[[#This Row],[2-4]]/D$5</f>
+        <v>3.273809523809524E-2</v>
+      </c>
+      <c r="AF15" s="2">
+        <f>表3[[#This Row],[5-7]]/D$7</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AG15" s="2">
+        <f>表3[[#This Row],[8-19]]/D$7</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AH15" s="2">
+        <f>表3[[#This Row],[20-25]]/D$8</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AI15" s="2">
+        <f>表3[[#This Row],[26-31]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AJ15" s="8">
+        <f>表3[[#This Row],[32-34]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AK15" s="8">
+        <f>表3[[#This Row],[35-36]]/D$11</f>
+        <v>4.4642857142857144E-2</v>
+      </c>
+      <c r="AL15" s="8">
+        <f>表3[[#This Row],[37-42]]/D$12</f>
+        <v>7.4404761904761909E-3</v>
+      </c>
+      <c r="AM15" s="8">
+        <f>表3[[#This Row],[43-48]]/D$13</f>
+        <v>7.4404761904761909E-3</v>
+      </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B30" s="5"/>
+    <row r="16" spans="2:39" x14ac:dyDescent="0.5">
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16" s="6">
+        <v>11</v>
+      </c>
+      <c r="H16" s="6">
+        <v>11</v>
+      </c>
+      <c r="I16" s="6">
+        <v>20</v>
+      </c>
+      <c r="J16" s="6">
+        <v>40</v>
+      </c>
+      <c r="K16" s="6">
+        <v>20</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="M16">
+        <v>10</v>
+      </c>
+      <c r="N16">
+        <v>10</v>
+      </c>
+      <c r="O16">
+        <v>10</v>
+      </c>
+      <c r="P16">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="4">
+        <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
+        <v>112</v>
+      </c>
+      <c r="S16" s="2">
+        <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="T16" s="2">
+        <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="U16" s="2">
+        <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="V16" s="2">
+        <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="W16" s="2">
+        <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="X16" s="2">
+        <f>表1[[#This Row],[26-31]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Y16" s="2">
+        <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Z16" s="2">
+        <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="AA16" s="2">
+        <f>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="AB16" s="2">
+        <f>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</f>
+        <v>4.4642857142857144E-2</v>
+      </c>
+      <c r="AD16" s="2">
+        <f>表3[[#This Row],[1-1]]/D$4</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="AE16" s="2">
+        <f>表3[[#This Row],[2-4]]/D$5</f>
+        <v>3.273809523809524E-2</v>
+      </c>
+      <c r="AF16" s="2">
+        <f>表3[[#This Row],[5-7]]/D$7</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AG16" s="2">
+        <f>表3[[#This Row],[8-19]]/D$7</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AH16" s="2">
+        <f>表3[[#This Row],[20-25]]/D$8</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AI16" s="2">
+        <f>表3[[#This Row],[26-31]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AJ16" s="8">
+        <f>表3[[#This Row],[32-34]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AK16" s="8">
+        <f>表3[[#This Row],[35-36]]/D$11</f>
+        <v>4.4642857142857144E-2</v>
+      </c>
+      <c r="AL16" s="8">
+        <f>表3[[#This Row],[37-42]]/D$12</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AM16" s="8">
+        <f>表3[[#This Row],[43-48]]/D$13</f>
+        <v>7.4404761904761909E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:39" x14ac:dyDescent="0.5">
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17" s="6">
+        <v>11</v>
+      </c>
+      <c r="H17" s="6">
+        <v>11</v>
+      </c>
+      <c r="I17" s="6">
+        <v>20</v>
+      </c>
+      <c r="J17" s="6">
+        <v>40</v>
+      </c>
+      <c r="K17" s="6">
+        <v>20</v>
+      </c>
+      <c r="L17">
+        <v>10</v>
+      </c>
+      <c r="M17">
+        <v>10</v>
+      </c>
+      <c r="N17">
+        <v>10</v>
+      </c>
+      <c r="O17">
+        <v>10</v>
+      </c>
+      <c r="P17">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="4">
+        <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
+        <v>112</v>
+      </c>
+      <c r="S17" s="2">
+        <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="T17" s="2">
+        <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="U17" s="2">
+        <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="V17" s="2">
+        <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="W17" s="2">
+        <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="X17" s="2">
+        <f>表1[[#This Row],[26-31]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Y17" s="2">
+        <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Z17" s="2">
+        <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="AA17" s="2">
+        <f>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="AB17" s="2">
+        <f>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="AD17" s="2">
+        <f>表3[[#This Row],[1-1]]/D$4</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="AE17" s="2">
+        <f>表3[[#This Row],[2-4]]/D$5</f>
+        <v>3.273809523809524E-2</v>
+      </c>
+      <c r="AF17" s="2">
+        <f>表3[[#This Row],[5-7]]/D$7</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AG17" s="2">
+        <f>表3[[#This Row],[8-19]]/D$7</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AH17" s="2">
+        <f>表3[[#This Row],[20-25]]/D$8</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AI17" s="2">
+        <f>表3[[#This Row],[26-31]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AJ17" s="8">
+        <f>表3[[#This Row],[32-34]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AK17" s="8">
+        <f>表3[[#This Row],[35-36]]/D$11</f>
+        <v>4.4642857142857144E-2</v>
+      </c>
+      <c r="AL17" s="8">
+        <f>表3[[#This Row],[37-42]]/D$12</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AM17" s="8">
+        <f>表3[[#This Row],[43-48]]/D$13</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:39" x14ac:dyDescent="0.5">
+      <c r="H18" s="5"/>
+      <c r="J18" s="4"/>
+      <c r="AE18" s="6"/>
+    </row>
+    <row r="19" spans="2:39" x14ac:dyDescent="0.5">
+      <c r="H19" s="5"/>
+      <c r="AE19" s="6"/>
+    </row>
+    <row r="20" spans="2:39" x14ac:dyDescent="0.5">
+      <c r="B20" s="3"/>
+      <c r="AE20" s="6"/>
+    </row>
+    <row r="21" spans="2:39" x14ac:dyDescent="0.5">
+      <c r="AE21" s="6"/>
+    </row>
+    <row r="22" spans="2:39" x14ac:dyDescent="0.5">
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="7"/>
+      <c r="AE22" s="6"/>
+    </row>
+    <row r="23" spans="2:39" x14ac:dyDescent="0.5">
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="2:39" x14ac:dyDescent="0.5">
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="2:39" x14ac:dyDescent="0.5">
+      <c r="H25" s="5"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="28" spans="2:39" x14ac:dyDescent="0.5">
+      <c r="B28" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1511,4 +3103,143 @@
     <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>2560</v>
+      </c>
+      <c r="D3">
+        <v>1440</v>
+      </c>
+      <c r="E3">
+        <f>表5[[#This Row],[宽]]/表5[[#This Row],[高]]</f>
+        <v>1.7777777777777777</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>1920</v>
+      </c>
+      <c r="D4">
+        <v>1080</v>
+      </c>
+      <c r="E4">
+        <f>表5[[#This Row],[宽]]/表5[[#This Row],[高]]</f>
+        <v>1.7777777777777777</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>1280</v>
+      </c>
+      <c r="D5">
+        <v>720</v>
+      </c>
+      <c r="E5">
+        <f>表5[[#This Row],[宽]]/表5[[#This Row],[高]]</f>
+        <v>1.7777777777777777</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>960</v>
+      </c>
+      <c r="D6">
+        <v>640</v>
+      </c>
+      <c r="E6">
+        <f>表5[[#This Row],[宽]]/表5[[#This Row],[高]]</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7">
+        <v>1136</v>
+      </c>
+      <c r="D7">
+        <v>640</v>
+      </c>
+      <c r="E7">
+        <f>表5[[#This Row],[宽]]/表5[[#This Row],[高]]</f>
+        <v>1.7749999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>1334</v>
+      </c>
+      <c r="D8">
+        <v>750</v>
+      </c>
+      <c r="E8">
+        <f>表5[[#This Row],[宽]]/表5[[#This Row],[高]]</f>
+        <v>1.7786666666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.5">
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>1920</v>
+      </c>
+      <c r="D9">
+        <v>1080</v>
+      </c>
+      <c r="E9">
+        <f>表5[[#This Row],[宽]]/表5[[#This Row],[高]]</f>
+        <v>1.7777777777777777</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/design.xlsx
+++ b/design.xlsx
@@ -306,94 +306,10 @@
   </cellStyles>
   <dxfs count="27">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -454,12 +370,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -672,6 +582,96 @@
         <name val="微软雅黑"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -736,7 +736,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="F3:Q17" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="F3:Q32" totalsRowShown="0">
   <tableColumns count="12">
     <tableColumn id="1" name="level"/>
     <tableColumn id="2" name="1-1"/>
@@ -758,7 +758,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="AD3:AM17" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" dataCellStyle="百分比">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="AD3:AM32" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" dataCellStyle="百分比">
   <tableColumns count="10">
     <tableColumn id="1" name="1-1" dataDxfId="23" dataCellStyle="百分比">
       <calculatedColumnFormula>表3[[#This Row],[1-1]]/D$4</calculatedColumnFormula>
@@ -769,25 +769,25 @@
     <tableColumn id="3" name="5-7" dataDxfId="21" dataCellStyle="百分比">
       <calculatedColumnFormula>表3[[#This Row],[5-7]]/D$7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="8-19" dataDxfId="0" dataCellStyle="百分比">
+    <tableColumn id="6" name="8-19" dataDxfId="20" dataCellStyle="百分比">
       <calculatedColumnFormula>表3[[#This Row],[8-19]]/D$7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="20-25" dataDxfId="20" dataCellStyle="百分比">
+    <tableColumn id="4" name="20-25" dataDxfId="19" dataCellStyle="百分比">
       <calculatedColumnFormula>表3[[#This Row],[20-25]]/D$8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="26-31" dataDxfId="19" dataCellStyle="百分比">
+    <tableColumn id="5" name="26-31" dataDxfId="18" dataCellStyle="百分比">
       <calculatedColumnFormula>表3[[#This Row],[26-31]]/D$9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="32-34" dataDxfId="4" dataCellStyle="百分比">
+    <tableColumn id="7" name="32-34" dataDxfId="17" dataCellStyle="百分比">
       <calculatedColumnFormula>表3[[#This Row],[32-34]]/D$9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="35-36" dataDxfId="3" dataCellStyle="百分比">
+    <tableColumn id="8" name="35-36" dataDxfId="16" dataCellStyle="百分比">
       <calculatedColumnFormula>表3[[#This Row],[35-36]]/D$11</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="37-42" dataDxfId="2" dataCellStyle="百分比">
+    <tableColumn id="9" name="37-42" dataDxfId="15" dataCellStyle="百分比">
       <calculatedColumnFormula>表3[[#This Row],[37-42]]/D$12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="43-48" dataDxfId="1" dataCellStyle="百分比">
+    <tableColumn id="10" name="43-48" dataDxfId="14" dataCellStyle="百分比">
       <calculatedColumnFormula>表3[[#This Row],[43-48]]/D$13</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -796,36 +796,36 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="S3:AB17" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" dataCellStyle="百分比">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="S3:AB32" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" dataCellStyle="百分比">
   <tableColumns count="10">
-    <tableColumn id="1" name="1-1" dataDxfId="16" dataCellStyle="百分比">
+    <tableColumn id="1" name="1-1" dataDxfId="11" dataCellStyle="百分比">
       <calculatedColumnFormula>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="2-4" dataDxfId="15" dataCellStyle="百分比">
+    <tableColumn id="2" name="2-4" dataDxfId="10" dataCellStyle="百分比">
       <calculatedColumnFormula>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="5-7" dataDxfId="14" dataCellStyle="百分比">
+    <tableColumn id="3" name="5-7" dataDxfId="9" dataCellStyle="百分比">
       <calculatedColumnFormula>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="8-19" dataDxfId="13" dataCellStyle="百分比">
+    <tableColumn id="6" name="8-19" dataDxfId="8" dataCellStyle="百分比">
       <calculatedColumnFormula>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="20-25" dataDxfId="12" dataCellStyle="百分比">
+    <tableColumn id="4" name="20-25" dataDxfId="7" dataCellStyle="百分比">
       <calculatedColumnFormula>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="26-31" dataDxfId="11" dataCellStyle="百分比">
+    <tableColumn id="5" name="26-31" dataDxfId="6" dataCellStyle="百分比">
       <calculatedColumnFormula>表1[[#This Row],[26-31]]/表1[[#This Row],[Sum]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="32-34" dataDxfId="5" dataCellStyle="百分比">
       <calculatedColumnFormula>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="35-36" dataDxfId="8" dataCellStyle="百分比">
+    <tableColumn id="8" name="35-36" dataDxfId="4" dataCellStyle="百分比">
       <calculatedColumnFormula>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="37-42" dataDxfId="7" dataCellStyle="百分比">
+    <tableColumn id="9" name="37-42" dataDxfId="3" dataCellStyle="百分比">
       <calculatedColumnFormula>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="43-48" dataDxfId="6" dataCellStyle="百分比">
+    <tableColumn id="10" name="43-48" dataDxfId="2" dataCellStyle="百分比">
       <calculatedColumnFormula>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -838,7 +838,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="类型"/>
     <tableColumn id="2" name="特点"/>
-    <tableColumn id="3" name="Block数量" dataDxfId="9"/>
+    <tableColumn id="3" name="Block数量" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -851,7 +851,7 @@
     <tableColumn id="1" name="机型"/>
     <tableColumn id="2" name="宽"/>
     <tableColumn id="3" name="高"/>
-    <tableColumn id="4" name="比例" dataDxfId="10">
+    <tableColumn id="4" name="比例" dataDxfId="0">
       <calculatedColumnFormula>表5[[#This Row],[宽]]/表5[[#This Row],[高]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1122,11 +1122,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AM28"/>
+  <dimension ref="B2:AM33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H15" sqref="H15"/>
+      <selection pane="topRight" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.1171875" defaultRowHeight="15" x14ac:dyDescent="0.5"/>
@@ -1712,7 +1712,7 @@
         <v>10</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1728,31 +1728,31 @@
       </c>
       <c r="Q7">
         <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="S7" s="2">
         <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
-        <v>0.10526315789473684</v>
+        <v>0.10869565217391304</v>
       </c>
       <c r="T7" s="2">
         <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
-        <v>0.10526315789473684</v>
+        <v>0.10869565217391304</v>
       </c>
       <c r="U7" s="2">
         <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
-        <v>0.21052631578947367</v>
+        <v>0.21739130434782608</v>
       </c>
       <c r="V7" s="2">
         <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
-        <v>0.42105263157894735</v>
+        <v>0.43478260869565216</v>
       </c>
       <c r="W7" s="2">
         <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
-        <v>0.10526315789473684</v>
+        <v>0.10869565217391304</v>
       </c>
       <c r="X7" s="2">
         <f>表1[[#This Row],[26-31]]/表1[[#This Row],[Sum]]</f>
-        <v>5.2631578947368418E-2</v>
+        <v>2.1739130434782608E-2</v>
       </c>
       <c r="Y7" s="2">
         <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
@@ -1772,27 +1772,27 @@
       </c>
       <c r="AD7" s="2">
         <f>表3[[#This Row],[1-1]]/D$4</f>
-        <v>0.10526315789473684</v>
+        <v>0.10869565217391304</v>
       </c>
       <c r="AE7" s="2">
         <f>表3[[#This Row],[2-4]]/D$5</f>
-        <v>3.5087719298245612E-2</v>
+        <v>3.6231884057971016E-2</v>
       </c>
       <c r="AF7" s="2">
         <f>表3[[#This Row],[5-7]]/D$7</f>
-        <v>1.7543859649122806E-2</v>
+        <v>1.8115942028985508E-2</v>
       </c>
       <c r="AG7" s="2">
         <f>表3[[#This Row],[8-19]]/D$7</f>
-        <v>3.5087719298245612E-2</v>
+        <v>3.6231884057971016E-2</v>
       </c>
       <c r="AH7" s="2">
         <f>表3[[#This Row],[20-25]]/D$8</f>
-        <v>1.7543859649122806E-2</v>
+        <v>1.8115942028985508E-2</v>
       </c>
       <c r="AI7" s="2">
         <f>表3[[#This Row],[26-31]]/D$9</f>
-        <v>8.771929824561403E-3</v>
+        <v>3.6231884057971015E-3</v>
       </c>
       <c r="AJ7" s="8">
         <f>表3[[#This Row],[32-34]]/D$9</f>
@@ -1841,7 +1841,7 @@
         <v>20</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1857,31 +1857,31 @@
       </c>
       <c r="Q8" s="4">
         <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="S8" s="2">
         <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
-        <v>9.5238095238095233E-2</v>
+        <v>9.8039215686274508E-2</v>
       </c>
       <c r="T8" s="2">
         <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
-        <v>9.5238095238095233E-2</v>
+        <v>9.8039215686274508E-2</v>
       </c>
       <c r="U8" s="2">
         <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
-        <v>0.19047619047619047</v>
+        <v>0.19607843137254902</v>
       </c>
       <c r="V8" s="2">
         <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
-        <v>0.38095238095238093</v>
+        <v>0.39215686274509803</v>
       </c>
       <c r="W8" s="2">
         <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
-        <v>0.19047619047619047</v>
+        <v>0.19607843137254902</v>
       </c>
       <c r="X8" s="2">
         <f>表1[[#This Row],[26-31]]/表1[[#This Row],[Sum]]</f>
-        <v>4.7619047619047616E-2</v>
+        <v>1.9607843137254902E-2</v>
       </c>
       <c r="Y8" s="2">
         <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
@@ -1901,27 +1901,27 @@
       </c>
       <c r="AD8" s="2">
         <f>表3[[#This Row],[1-1]]/D$4</f>
-        <v>9.5238095238095233E-2</v>
+        <v>9.8039215686274508E-2</v>
       </c>
       <c r="AE8" s="2">
         <f>表3[[#This Row],[2-4]]/D$5</f>
-        <v>3.1746031746031744E-2</v>
+        <v>3.2679738562091505E-2</v>
       </c>
       <c r="AF8" s="2">
         <f>表3[[#This Row],[5-7]]/D$7</f>
-        <v>1.5873015873015872E-2</v>
+        <v>1.6339869281045753E-2</v>
       </c>
       <c r="AG8" s="2">
         <f>表3[[#This Row],[8-19]]/D$7</f>
-        <v>3.1746031746031744E-2</v>
+        <v>3.2679738562091505E-2</v>
       </c>
       <c r="AH8" s="2">
         <f>表3[[#This Row],[20-25]]/D$8</f>
-        <v>3.1746031746031744E-2</v>
+        <v>3.2679738562091505E-2</v>
       </c>
       <c r="AI8" s="2">
         <f>表3[[#This Row],[26-31]]/D$9</f>
-        <v>7.9365079365079361E-3</v>
+        <v>3.2679738562091504E-3</v>
       </c>
       <c r="AJ8" s="8">
         <f>表3[[#This Row],[32-34]]/D$9</f>
@@ -1969,10 +1969,10 @@
         <v>20</v>
       </c>
       <c r="L9" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M9" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N9" s="6">
         <v>0</v>
@@ -1985,35 +1985,35 @@
       </c>
       <c r="Q9" s="7">
         <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S9" s="2">
         <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
-        <v>9.5238095238095233E-2</v>
+        <v>9.6153846153846159E-2</v>
       </c>
       <c r="T9" s="2">
         <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
-        <v>9.5238095238095233E-2</v>
+        <v>9.6153846153846159E-2</v>
       </c>
       <c r="U9" s="2">
         <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
-        <v>0.19047619047619047</v>
+        <v>0.19230769230769232</v>
       </c>
       <c r="V9" s="2">
         <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
-        <v>0.38095238095238093</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="W9" s="2">
         <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
-        <v>0.19047619047619047</v>
+        <v>0.19230769230769232</v>
       </c>
       <c r="X9" s="2">
         <f>表1[[#This Row],[26-31]]/表1[[#This Row],[Sum]]</f>
-        <v>4.7619047619047616E-2</v>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="Y9" s="2">
         <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
-        <v>4.7619047619047616E-2</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="2">
         <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
@@ -2029,31 +2029,31 @@
       </c>
       <c r="AD9" s="2">
         <f>表3[[#This Row],[1-1]]/D$4</f>
-        <v>9.5238095238095233E-2</v>
+        <v>9.6153846153846159E-2</v>
       </c>
       <c r="AE9" s="2">
         <f>表3[[#This Row],[2-4]]/D$5</f>
-        <v>3.1746031746031744E-2</v>
+        <v>3.2051282051282055E-2</v>
       </c>
       <c r="AF9" s="2">
         <f>表3[[#This Row],[5-7]]/D$7</f>
-        <v>1.5873015873015872E-2</v>
+        <v>1.6025641025641028E-2</v>
       </c>
       <c r="AG9" s="2">
         <f>表3[[#This Row],[8-19]]/D$7</f>
-        <v>3.1746031746031744E-2</v>
+        <v>3.2051282051282055E-2</v>
       </c>
       <c r="AH9" s="2">
         <f>表3[[#This Row],[20-25]]/D$8</f>
-        <v>3.1746031746031744E-2</v>
+        <v>3.2051282051282055E-2</v>
       </c>
       <c r="AI9" s="2">
         <f>表3[[#This Row],[26-31]]/D$9</f>
-        <v>7.9365079365079361E-3</v>
+        <v>6.4102564102564109E-3</v>
       </c>
       <c r="AJ9" s="8">
         <f>表3[[#This Row],[32-34]]/D$9</f>
-        <v>7.9365079365079361E-3</v>
+        <v>0</v>
       </c>
       <c r="AK9" s="8">
         <f>表3[[#This Row],[35-36]]/D$11</f>
@@ -2097,13 +2097,13 @@
         <v>20</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O10" s="6">
         <v>0</v>
@@ -2113,39 +2113,39 @@
       </c>
       <c r="Q10" s="4">
         <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S10" s="2">
         <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
-        <v>9.5238095238095233E-2</v>
+        <v>9.4339622641509441E-2</v>
       </c>
       <c r="T10" s="2">
         <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
-        <v>9.5238095238095233E-2</v>
+        <v>9.4339622641509441E-2</v>
       </c>
       <c r="U10" s="2">
         <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
-        <v>0.19047619047619047</v>
+        <v>0.18867924528301888</v>
       </c>
       <c r="V10" s="2">
         <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
-        <v>0.38095238095238093</v>
+        <v>0.37735849056603776</v>
       </c>
       <c r="W10" s="2">
         <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
-        <v>0.19047619047619047</v>
+        <v>0.18867924528301888</v>
       </c>
       <c r="X10" s="2">
         <f>表1[[#This Row],[26-31]]/表1[[#This Row],[Sum]]</f>
-        <v>4.7619047619047616E-2</v>
+        <v>5.6603773584905662E-2</v>
       </c>
       <c r="Y10" s="2">
         <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
-        <v>4.7619047619047616E-2</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="2">
         <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
-        <v>4.7619047619047616E-2</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="2">
         <f>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</f>
@@ -2157,35 +2157,35 @@
       </c>
       <c r="AD10" s="2">
         <f>表3[[#This Row],[1-1]]/D$4</f>
-        <v>9.5238095238095233E-2</v>
+        <v>9.4339622641509441E-2</v>
       </c>
       <c r="AE10" s="2">
         <f>表3[[#This Row],[2-4]]/D$5</f>
-        <v>3.1746031746031744E-2</v>
+        <v>3.1446540880503145E-2</v>
       </c>
       <c r="AF10" s="2">
         <f>表3[[#This Row],[5-7]]/D$7</f>
-        <v>1.5873015873015872E-2</v>
+        <v>1.5723270440251572E-2</v>
       </c>
       <c r="AG10" s="2">
         <f>表3[[#This Row],[8-19]]/D$7</f>
-        <v>3.1746031746031744E-2</v>
+        <v>3.1446540880503145E-2</v>
       </c>
       <c r="AH10" s="2">
         <f>表3[[#This Row],[20-25]]/D$8</f>
-        <v>3.1746031746031744E-2</v>
+        <v>3.1446540880503145E-2</v>
       </c>
       <c r="AI10" s="2">
         <f>表3[[#This Row],[26-31]]/D$9</f>
-        <v>7.9365079365079361E-3</v>
+        <v>9.433962264150943E-3</v>
       </c>
       <c r="AJ10" s="8">
         <f>表3[[#This Row],[32-34]]/D$9</f>
-        <v>7.9365079365079361E-3</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="8">
         <f>表3[[#This Row],[35-36]]/D$11</f>
-        <v>2.3809523809523808E-2</v>
+        <v>0</v>
       </c>
       <c r="AL10" s="8">
         <f>表3[[#This Row],[37-42]]/D$12</f>
@@ -2225,59 +2225,59 @@
         <v>20</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11" s="4">
         <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="S11" s="2">
         <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
-        <v>9.5238095238095233E-2</v>
+        <v>9.2592592592592587E-2</v>
       </c>
       <c r="T11" s="2">
         <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
-        <v>9.5238095238095233E-2</v>
+        <v>9.2592592592592587E-2</v>
       </c>
       <c r="U11" s="2">
         <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
-        <v>0.19047619047619047</v>
+        <v>0.18518518518518517</v>
       </c>
       <c r="V11" s="2">
         <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
-        <v>0.38095238095238093</v>
+        <v>0.37037037037037035</v>
       </c>
       <c r="W11" s="2">
         <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
-        <v>0.19047619047619047</v>
+        <v>0.18518518518518517</v>
       </c>
       <c r="X11" s="2">
         <f>表1[[#This Row],[26-31]]/表1[[#This Row],[Sum]]</f>
-        <v>4.7619047619047616E-2</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="Y11" s="2">
         <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
-        <v>4.7619047619047616E-2</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="2">
         <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
-        <v>4.7619047619047616E-2</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="2">
         <f>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</f>
-        <v>4.7619047619047616E-2</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="2">
         <f>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</f>
@@ -2285,39 +2285,39 @@
       </c>
       <c r="AD11" s="2">
         <f>表3[[#This Row],[1-1]]/D$4</f>
-        <v>9.5238095238095233E-2</v>
+        <v>9.2592592592592587E-2</v>
       </c>
       <c r="AE11" s="2">
         <f>表3[[#This Row],[2-4]]/D$5</f>
-        <v>3.1746031746031744E-2</v>
+        <v>3.0864197530864196E-2</v>
       </c>
       <c r="AF11" s="2">
         <f>表3[[#This Row],[5-7]]/D$7</f>
-        <v>1.5873015873015872E-2</v>
+        <v>1.5432098765432098E-2</v>
       </c>
       <c r="AG11" s="2">
         <f>表3[[#This Row],[8-19]]/D$7</f>
-        <v>3.1746031746031744E-2</v>
+        <v>3.0864197530864196E-2</v>
       </c>
       <c r="AH11" s="2">
         <f>表3[[#This Row],[20-25]]/D$8</f>
-        <v>3.1746031746031744E-2</v>
+        <v>3.0864197530864196E-2</v>
       </c>
       <c r="AI11" s="2">
         <f>表3[[#This Row],[26-31]]/D$9</f>
-        <v>7.9365079365079361E-3</v>
+        <v>1.2345679012345678E-2</v>
       </c>
       <c r="AJ11" s="8">
         <f>表3[[#This Row],[32-34]]/D$9</f>
-        <v>7.9365079365079361E-3</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="8">
         <f>表3[[#This Row],[35-36]]/D$11</f>
-        <v>2.3809523809523808E-2</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="8">
         <f>表3[[#This Row],[37-42]]/D$12</f>
-        <v>7.9365079365079361E-3</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="8">
         <f>表3[[#This Row],[43-48]]/D$13</f>
@@ -2353,103 +2353,103 @@
         <v>20</v>
       </c>
       <c r="L12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="4">
         <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="S12" s="2">
         <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
-        <v>9.5238095238095233E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="T12" s="2">
         <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
-        <v>9.5238095238095233E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="U12" s="2">
         <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
-        <v>0.19047619047619047</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="V12" s="2">
         <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
-        <v>0.38095238095238093</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="W12" s="2">
         <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
-        <v>0.19047619047619047</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="X12" s="2">
         <f>表1[[#This Row],[26-31]]/表1[[#This Row],[Sum]]</f>
-        <v>4.7619047619047616E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="Y12" s="2">
         <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
-        <v>4.7619047619047616E-2</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="2">
         <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
-        <v>4.7619047619047616E-2</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="2">
         <f>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</f>
-        <v>4.7619047619047616E-2</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="2">
         <f>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</f>
-        <v>4.7619047619047616E-2</v>
+        <v>1.8181818181818181E-2</v>
       </c>
       <c r="AD12" s="2">
         <f>表3[[#This Row],[1-1]]/D$4</f>
-        <v>9.5238095238095233E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="AE12" s="2">
         <f>表3[[#This Row],[2-4]]/D$5</f>
-        <v>3.1746031746031744E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="AF12" s="2">
         <f>表3[[#This Row],[5-7]]/D$7</f>
-        <v>1.5873015873015872E-2</v>
+        <v>1.5151515151515152E-2</v>
       </c>
       <c r="AG12" s="2">
         <f>表3[[#This Row],[8-19]]/D$7</f>
-        <v>3.1746031746031744E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="AH12" s="2">
         <f>表3[[#This Row],[20-25]]/D$8</f>
-        <v>3.1746031746031744E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="AI12" s="2">
         <f>表3[[#This Row],[26-31]]/D$9</f>
-        <v>7.9365079365079361E-3</v>
+        <v>1.5151515151515152E-2</v>
       </c>
       <c r="AJ12" s="8">
         <f>表3[[#This Row],[32-34]]/D$9</f>
-        <v>7.9365079365079361E-3</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="8">
         <f>表3[[#This Row],[35-36]]/D$11</f>
-        <v>2.3809523809523808E-2</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="8">
         <f>表3[[#This Row],[37-42]]/D$12</f>
-        <v>7.9365079365079361E-3</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="8">
         <f>表3[[#This Row],[43-48]]/D$13</f>
-        <v>7.9365079365079361E-3</v>
+        <v>3.0303030303030303E-3</v>
       </c>
     </row>
     <row r="13" spans="2:39" x14ac:dyDescent="0.5">
@@ -2484,16 +2484,16 @@
         <v>10</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="4">
         <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
@@ -2525,19 +2525,19 @@
       </c>
       <c r="Y13" s="2">
         <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
-        <v>4.4642857142857144E-2</v>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="Z13" s="2">
         <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
-        <v>4.4642857142857144E-2</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="2">
         <f>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</f>
-        <v>4.4642857142857144E-2</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="2">
         <f>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</f>
-        <v>4.4642857142857144E-2</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="2">
         <f>表3[[#This Row],[1-1]]/D$4</f>
@@ -2565,19 +2565,19 @@
       </c>
       <c r="AJ13" s="8">
         <f>表3[[#This Row],[32-34]]/D$9</f>
-        <v>7.4404761904761909E-3</v>
+        <v>2.976190476190476E-3</v>
       </c>
       <c r="AK13" s="8">
         <f>表3[[#This Row],[35-36]]/D$11</f>
-        <v>2.2321428571428572E-2</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="8">
         <f>表3[[#This Row],[37-42]]/D$12</f>
-        <v>7.4404761904761909E-3</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="8">
         <f>表3[[#This Row],[43-48]]/D$13</f>
-        <v>7.4404761904761909E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:39" x14ac:dyDescent="0.5">
@@ -2602,17 +2602,17 @@
       <c r="L14">
         <v>10</v>
       </c>
-      <c r="M14">
-        <v>10</v>
+      <c r="M14" s="6">
+        <v>4</v>
       </c>
       <c r="N14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="4">
         <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
@@ -2644,19 +2644,19 @@
       </c>
       <c r="Y14" s="2">
         <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
-        <v>8.9285714285714288E-2</v>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="Z14" s="2">
         <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
-        <v>4.4642857142857144E-2</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="2">
         <f>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</f>
-        <v>4.4642857142857144E-2</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="2">
         <f>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</f>
-        <v>4.4642857142857144E-2</v>
+        <v>0</v>
       </c>
       <c r="AD14" s="2">
         <f>表3[[#This Row],[1-1]]/D$4</f>
@@ -2684,19 +2684,19 @@
       </c>
       <c r="AJ14" s="8">
         <f>表3[[#This Row],[32-34]]/D$9</f>
-        <v>1.4880952380952382E-2</v>
+        <v>5.9523809523809521E-3</v>
       </c>
       <c r="AK14" s="8">
         <f>表3[[#This Row],[35-36]]/D$11</f>
-        <v>2.2321428571428572E-2</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="8">
         <f>表3[[#This Row],[37-42]]/D$12</f>
-        <v>7.4404761904761909E-3</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="8">
         <f>表3[[#This Row],[43-48]]/D$13</f>
-        <v>7.4404761904761909E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:39" x14ac:dyDescent="0.5">
@@ -2722,16 +2722,16 @@
         <v>10</v>
       </c>
       <c r="M15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="4">
         <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
@@ -2763,19 +2763,19 @@
       </c>
       <c r="Y15" s="2">
         <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
-        <v>8.9285714285714288E-2</v>
+        <v>5.3571428571428568E-2</v>
       </c>
       <c r="Z15" s="2">
         <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
-        <v>8.9285714285714288E-2</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="2">
         <f>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</f>
-        <v>4.4642857142857144E-2</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="2">
         <f>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</f>
-        <v>4.4642857142857144E-2</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="2">
         <f>表3[[#This Row],[1-1]]/D$4</f>
@@ -2803,19 +2803,19 @@
       </c>
       <c r="AJ15" s="8">
         <f>表3[[#This Row],[32-34]]/D$9</f>
-        <v>1.4880952380952382E-2</v>
+        <v>8.9285714285714281E-3</v>
       </c>
       <c r="AK15" s="8">
         <f>表3[[#This Row],[35-36]]/D$11</f>
-        <v>4.4642857142857144E-2</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="8">
         <f>表3[[#This Row],[37-42]]/D$12</f>
-        <v>7.4404761904761909E-3</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="8">
         <f>表3[[#This Row],[43-48]]/D$13</f>
-        <v>7.4404761904761909E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:39" x14ac:dyDescent="0.5">
@@ -2841,16 +2841,16 @@
         <v>10</v>
       </c>
       <c r="M16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="4">
         <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
@@ -2882,19 +2882,19 @@
       </c>
       <c r="Y16" s="2">
         <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
-        <v>8.9285714285714288E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="Z16" s="2">
         <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
-        <v>8.9285714285714288E-2</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="2">
         <f>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</f>
-        <v>8.9285714285714288E-2</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="2">
         <f>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</f>
-        <v>4.4642857142857144E-2</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="2">
         <f>表3[[#This Row],[1-1]]/D$4</f>
@@ -2922,19 +2922,19 @@
       </c>
       <c r="AJ16" s="8">
         <f>表3[[#This Row],[32-34]]/D$9</f>
-        <v>1.4880952380952382E-2</v>
+        <v>1.1904761904761904E-2</v>
       </c>
       <c r="AK16" s="8">
         <f>表3[[#This Row],[35-36]]/D$11</f>
-        <v>4.4642857142857144E-2</v>
+        <v>0</v>
       </c>
       <c r="AL16" s="8">
         <f>表3[[#This Row],[37-42]]/D$12</f>
-        <v>1.4880952380952382E-2</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="8">
         <f>表3[[#This Row],[43-48]]/D$13</f>
-        <v>7.4404761904761909E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:39" x14ac:dyDescent="0.5">
@@ -2963,13 +2963,13 @@
         <v>10</v>
       </c>
       <c r="N17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="4">
         <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
@@ -3005,15 +3005,15 @@
       </c>
       <c r="Z17" s="2">
         <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
-        <v>8.9285714285714288E-2</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="2">
         <f>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</f>
-        <v>8.9285714285714288E-2</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="2">
         <f>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</f>
-        <v>8.9285714285714288E-2</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="2">
         <f>表3[[#This Row],[1-1]]/D$4</f>
@@ -3045,51 +3045,1811 @@
       </c>
       <c r="AK17" s="8">
         <f>表3[[#This Row],[35-36]]/D$11</f>
-        <v>4.4642857142857144E-2</v>
+        <v>0</v>
       </c>
       <c r="AL17" s="8">
         <f>表3[[#This Row],[37-42]]/D$12</f>
-        <v>1.4880952380952382E-2</v>
+        <v>0</v>
       </c>
       <c r="AM17" s="8">
         <f>表3[[#This Row],[43-48]]/D$13</f>
-        <v>1.4880952380952382E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:39" x14ac:dyDescent="0.5">
-      <c r="H18" s="5"/>
-      <c r="J18" s="4"/>
-      <c r="AE18" s="6"/>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18" s="6">
+        <v>11</v>
+      </c>
+      <c r="H18" s="6">
+        <v>11</v>
+      </c>
+      <c r="I18" s="6">
+        <v>20</v>
+      </c>
+      <c r="J18" s="6">
+        <v>40</v>
+      </c>
+      <c r="K18" s="6">
+        <v>20</v>
+      </c>
+      <c r="L18">
+        <v>10</v>
+      </c>
+      <c r="M18">
+        <v>10</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="4">
+        <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
+        <v>112</v>
+      </c>
+      <c r="S18" s="2">
+        <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="T18" s="2">
+        <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="U18" s="2">
+        <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="V18" s="8">
+        <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="W18" s="2">
+        <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="X18" s="2">
+        <f>表1[[#This Row],[26-31]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Y18" s="8">
+        <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Z18" s="8">
+        <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="AA18" s="8">
+        <f>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="8">
+        <f>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="8">
+        <f>表3[[#This Row],[1-1]]/D$4</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="AE18" s="8">
+        <f>表3[[#This Row],[2-4]]/D$5</f>
+        <v>3.273809523809524E-2</v>
+      </c>
+      <c r="AF18" s="8">
+        <f>表3[[#This Row],[5-7]]/D$7</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AG18" s="8">
+        <f>表3[[#This Row],[8-19]]/D$7</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AH18" s="8">
+        <f>表3[[#This Row],[20-25]]/D$8</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AI18" s="8">
+        <f>表3[[#This Row],[26-31]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AJ18" s="8">
+        <f>表3[[#This Row],[32-34]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AK18" s="8">
+        <f>表3[[#This Row],[35-36]]/D$11</f>
+        <v>8.9285714285714281E-3</v>
+      </c>
+      <c r="AL18" s="8">
+        <f>表3[[#This Row],[37-42]]/D$12</f>
+        <v>0</v>
+      </c>
+      <c r="AM18" s="8">
+        <f>表3[[#This Row],[43-48]]/D$13</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="2:39" x14ac:dyDescent="0.5">
-      <c r="H19" s="5"/>
-      <c r="AE19" s="6"/>
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19" s="6">
+        <v>11</v>
+      </c>
+      <c r="H19" s="6">
+        <v>11</v>
+      </c>
+      <c r="I19" s="6">
+        <v>20</v>
+      </c>
+      <c r="J19" s="6">
+        <v>40</v>
+      </c>
+      <c r="K19" s="6">
+        <v>20</v>
+      </c>
+      <c r="L19">
+        <v>10</v>
+      </c>
+      <c r="M19">
+        <v>10</v>
+      </c>
+      <c r="N19" s="6">
+        <v>4</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4">
+        <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
+        <v>112</v>
+      </c>
+      <c r="S19" s="2">
+        <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="T19" s="2">
+        <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="U19" s="2">
+        <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="V19" s="8">
+        <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="W19" s="2">
+        <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="X19" s="2">
+        <f>表1[[#This Row],[26-31]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Y19" s="8">
+        <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Z19" s="8">
+        <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="AA19" s="8">
+        <f>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="8">
+        <f>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="8">
+        <f>表3[[#This Row],[1-1]]/D$4</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="AE19" s="8">
+        <f>表3[[#This Row],[2-4]]/D$5</f>
+        <v>3.273809523809524E-2</v>
+      </c>
+      <c r="AF19" s="8">
+        <f>表3[[#This Row],[5-7]]/D$7</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AG19" s="8">
+        <f>表3[[#This Row],[8-19]]/D$7</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AH19" s="8">
+        <f>表3[[#This Row],[20-25]]/D$8</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AI19" s="8">
+        <f>表3[[#This Row],[26-31]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AJ19" s="8">
+        <f>表3[[#This Row],[32-34]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AK19" s="8">
+        <f>表3[[#This Row],[35-36]]/D$11</f>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="AL19" s="8">
+        <f>表3[[#This Row],[37-42]]/D$12</f>
+        <v>0</v>
+      </c>
+      <c r="AM19" s="8">
+        <f>表3[[#This Row],[43-48]]/D$13</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="2:39" x14ac:dyDescent="0.5">
       <c r="B20" s="3"/>
-      <c r="AE20" s="6"/>
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20" s="6">
+        <v>11</v>
+      </c>
+      <c r="H20" s="6">
+        <v>11</v>
+      </c>
+      <c r="I20" s="6">
+        <v>20</v>
+      </c>
+      <c r="J20" s="6">
+        <v>40</v>
+      </c>
+      <c r="K20" s="6">
+        <v>20</v>
+      </c>
+      <c r="L20">
+        <v>10</v>
+      </c>
+      <c r="M20">
+        <v>10</v>
+      </c>
+      <c r="N20">
+        <v>6</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="4">
+        <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
+        <v>112</v>
+      </c>
+      <c r="S20" s="2">
+        <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="T20" s="2">
+        <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="U20" s="2">
+        <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="V20" s="8">
+        <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="W20" s="2">
+        <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="X20" s="2">
+        <f>表1[[#This Row],[26-31]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Y20" s="8">
+        <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Z20" s="8">
+        <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="AA20" s="8">
+        <f>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="8">
+        <f>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="8">
+        <f>表3[[#This Row],[1-1]]/D$4</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="AE20" s="8">
+        <f>表3[[#This Row],[2-4]]/D$5</f>
+        <v>3.273809523809524E-2</v>
+      </c>
+      <c r="AF20" s="8">
+        <f>表3[[#This Row],[5-7]]/D$7</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AG20" s="8">
+        <f>表3[[#This Row],[8-19]]/D$7</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AH20" s="8">
+        <f>表3[[#This Row],[20-25]]/D$8</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AI20" s="8">
+        <f>表3[[#This Row],[26-31]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AJ20" s="8">
+        <f>表3[[#This Row],[32-34]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AK20" s="8">
+        <f>表3[[#This Row],[35-36]]/D$11</f>
+        <v>2.6785714285714284E-2</v>
+      </c>
+      <c r="AL20" s="8">
+        <f>表3[[#This Row],[37-42]]/D$12</f>
+        <v>0</v>
+      </c>
+      <c r="AM20" s="8">
+        <f>表3[[#This Row],[43-48]]/D$13</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="2:39" x14ac:dyDescent="0.5">
-      <c r="AE21" s="6"/>
+      <c r="F21">
+        <v>18</v>
+      </c>
+      <c r="G21" s="6">
+        <v>11</v>
+      </c>
+      <c r="H21" s="6">
+        <v>11</v>
+      </c>
+      <c r="I21" s="6">
+        <v>20</v>
+      </c>
+      <c r="J21" s="6">
+        <v>40</v>
+      </c>
+      <c r="K21" s="6">
+        <v>20</v>
+      </c>
+      <c r="L21">
+        <v>10</v>
+      </c>
+      <c r="M21">
+        <v>10</v>
+      </c>
+      <c r="N21">
+        <v>8</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4">
+        <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
+        <v>112</v>
+      </c>
+      <c r="S21" s="2">
+        <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="T21" s="2">
+        <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="U21" s="2">
+        <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="V21" s="8">
+        <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="W21" s="2">
+        <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="X21" s="2">
+        <f>表1[[#This Row],[26-31]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Y21" s="8">
+        <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Z21" s="8">
+        <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="AA21" s="8">
+        <f>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="8">
+        <f>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="8">
+        <f>表3[[#This Row],[1-1]]/D$4</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="AE21" s="8">
+        <f>表3[[#This Row],[2-4]]/D$5</f>
+        <v>3.273809523809524E-2</v>
+      </c>
+      <c r="AF21" s="8">
+        <f>表3[[#This Row],[5-7]]/D$7</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AG21" s="8">
+        <f>表3[[#This Row],[8-19]]/D$7</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AH21" s="8">
+        <f>表3[[#This Row],[20-25]]/D$8</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AI21" s="8">
+        <f>表3[[#This Row],[26-31]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AJ21" s="8">
+        <f>表3[[#This Row],[32-34]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AK21" s="8">
+        <f>表3[[#This Row],[35-36]]/D$11</f>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="AL21" s="8">
+        <f>表3[[#This Row],[37-42]]/D$12</f>
+        <v>0</v>
+      </c>
+      <c r="AM21" s="8">
+        <f>表3[[#This Row],[43-48]]/D$13</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="2:39" x14ac:dyDescent="0.5">
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="7"/>
-      <c r="AE22" s="6"/>
+      <c r="F22">
+        <v>19</v>
+      </c>
+      <c r="G22" s="6">
+        <v>11</v>
+      </c>
+      <c r="H22" s="6">
+        <v>11</v>
+      </c>
+      <c r="I22" s="6">
+        <v>20</v>
+      </c>
+      <c r="J22" s="6">
+        <v>40</v>
+      </c>
+      <c r="K22" s="6">
+        <v>20</v>
+      </c>
+      <c r="L22">
+        <v>10</v>
+      </c>
+      <c r="M22">
+        <v>10</v>
+      </c>
+      <c r="N22">
+        <v>10</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="4">
+        <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
+        <v>112</v>
+      </c>
+      <c r="S22" s="2">
+        <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="T22" s="2">
+        <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="U22" s="2">
+        <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="V22" s="8">
+        <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="W22" s="2">
+        <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="X22" s="2">
+        <f>表1[[#This Row],[26-31]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Y22" s="8">
+        <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Z22" s="8">
+        <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="AA22" s="8">
+        <f>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="8">
+        <f>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="8">
+        <f>表3[[#This Row],[1-1]]/D$4</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="AE22" s="8">
+        <f>表3[[#This Row],[2-4]]/D$5</f>
+        <v>3.273809523809524E-2</v>
+      </c>
+      <c r="AF22" s="8">
+        <f>表3[[#This Row],[5-7]]/D$7</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AG22" s="8">
+        <f>表3[[#This Row],[8-19]]/D$7</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AH22" s="8">
+        <f>表3[[#This Row],[20-25]]/D$8</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AI22" s="8">
+        <f>表3[[#This Row],[26-31]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AJ22" s="8">
+        <f>表3[[#This Row],[32-34]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AK22" s="8">
+        <f>表3[[#This Row],[35-36]]/D$11</f>
+        <v>4.4642857142857144E-2</v>
+      </c>
+      <c r="AL22" s="8">
+        <f>表3[[#This Row],[37-42]]/D$12</f>
+        <v>0</v>
+      </c>
+      <c r="AM22" s="8">
+        <f>表3[[#This Row],[43-48]]/D$13</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="2:39" x14ac:dyDescent="0.5">
-      <c r="J23" s="4"/>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23" s="6">
+        <v>11</v>
+      </c>
+      <c r="H23" s="6">
+        <v>11</v>
+      </c>
+      <c r="I23" s="6">
+        <v>20</v>
+      </c>
+      <c r="J23" s="6">
+        <v>40</v>
+      </c>
+      <c r="K23" s="6">
+        <v>20</v>
+      </c>
+      <c r="L23">
+        <v>10</v>
+      </c>
+      <c r="M23">
+        <v>10</v>
+      </c>
+      <c r="N23">
+        <v>10</v>
+      </c>
+      <c r="O23">
+        <v>2</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="4">
+        <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
+        <v>112</v>
+      </c>
+      <c r="S23" s="2">
+        <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="T23" s="2">
+        <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="U23" s="2">
+        <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="V23" s="8">
+        <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="W23" s="2">
+        <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="X23" s="2">
+        <f>表1[[#This Row],[26-31]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Y23" s="8">
+        <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Z23" s="8">
+        <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="AA23" s="8">
+        <f>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</f>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="AB23" s="8">
+        <f>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="8">
+        <f>表3[[#This Row],[1-1]]/D$4</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="AE23" s="8">
+        <f>表3[[#This Row],[2-4]]/D$5</f>
+        <v>3.273809523809524E-2</v>
+      </c>
+      <c r="AF23" s="8">
+        <f>表3[[#This Row],[5-7]]/D$7</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AG23" s="8">
+        <f>表3[[#This Row],[8-19]]/D$7</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AH23" s="8">
+        <f>表3[[#This Row],[20-25]]/D$8</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AI23" s="8">
+        <f>表3[[#This Row],[26-31]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AJ23" s="8">
+        <f>表3[[#This Row],[32-34]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AK23" s="8">
+        <f>表3[[#This Row],[35-36]]/D$11</f>
+        <v>4.4642857142857144E-2</v>
+      </c>
+      <c r="AL23" s="8">
+        <f>表3[[#This Row],[37-42]]/D$12</f>
+        <v>2.976190476190476E-3</v>
+      </c>
+      <c r="AM23" s="8">
+        <f>表3[[#This Row],[43-48]]/D$13</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="2:39" x14ac:dyDescent="0.5">
-      <c r="J24" s="4"/>
+      <c r="F24">
+        <v>21</v>
+      </c>
+      <c r="G24" s="6">
+        <v>11</v>
+      </c>
+      <c r="H24" s="6">
+        <v>11</v>
+      </c>
+      <c r="I24" s="6">
+        <v>20</v>
+      </c>
+      <c r="J24" s="6">
+        <v>40</v>
+      </c>
+      <c r="K24" s="6">
+        <v>20</v>
+      </c>
+      <c r="L24">
+        <v>10</v>
+      </c>
+      <c r="M24">
+        <v>10</v>
+      </c>
+      <c r="N24">
+        <v>10</v>
+      </c>
+      <c r="O24" s="6">
+        <v>4</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="4">
+        <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
+        <v>112</v>
+      </c>
+      <c r="S24" s="2">
+        <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="T24" s="2">
+        <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="U24" s="2">
+        <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="V24" s="8">
+        <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="W24" s="2">
+        <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="X24" s="2">
+        <f>表1[[#This Row],[26-31]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Y24" s="8">
+        <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Z24" s="8">
+        <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="AA24" s="8">
+        <f>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</f>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="AB24" s="8">
+        <f>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="8">
+        <f>表3[[#This Row],[1-1]]/D$4</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="AE24" s="8">
+        <f>表3[[#This Row],[2-4]]/D$5</f>
+        <v>3.273809523809524E-2</v>
+      </c>
+      <c r="AF24" s="8">
+        <f>表3[[#This Row],[5-7]]/D$7</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AG24" s="8">
+        <f>表3[[#This Row],[8-19]]/D$7</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AH24" s="8">
+        <f>表3[[#This Row],[20-25]]/D$8</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AI24" s="8">
+        <f>表3[[#This Row],[26-31]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AJ24" s="8">
+        <f>表3[[#This Row],[32-34]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AK24" s="8">
+        <f>表3[[#This Row],[35-36]]/D$11</f>
+        <v>4.4642857142857144E-2</v>
+      </c>
+      <c r="AL24" s="8">
+        <f>表3[[#This Row],[37-42]]/D$12</f>
+        <v>5.9523809523809521E-3</v>
+      </c>
+      <c r="AM24" s="8">
+        <f>表3[[#This Row],[43-48]]/D$13</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="2:39" x14ac:dyDescent="0.5">
-      <c r="H25" s="5"/>
-      <c r="J25" s="4"/>
+      <c r="F25">
+        <v>22</v>
+      </c>
+      <c r="G25" s="6">
+        <v>11</v>
+      </c>
+      <c r="H25" s="6">
+        <v>11</v>
+      </c>
+      <c r="I25" s="6">
+        <v>20</v>
+      </c>
+      <c r="J25" s="6">
+        <v>40</v>
+      </c>
+      <c r="K25" s="6">
+        <v>20</v>
+      </c>
+      <c r="L25">
+        <v>10</v>
+      </c>
+      <c r="M25">
+        <v>10</v>
+      </c>
+      <c r="N25">
+        <v>10</v>
+      </c>
+      <c r="O25">
+        <v>6</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="4">
+        <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
+        <v>112</v>
+      </c>
+      <c r="S25" s="2">
+        <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="T25" s="2">
+        <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="U25" s="2">
+        <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="V25" s="8">
+        <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="W25" s="2">
+        <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="X25" s="2">
+        <f>表1[[#This Row],[26-31]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Y25" s="8">
+        <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Z25" s="8">
+        <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="AA25" s="8">
+        <f>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</f>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="AB25" s="8">
+        <f>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="8">
+        <f>表3[[#This Row],[1-1]]/D$4</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="AE25" s="8">
+        <f>表3[[#This Row],[2-4]]/D$5</f>
+        <v>3.273809523809524E-2</v>
+      </c>
+      <c r="AF25" s="8">
+        <f>表3[[#This Row],[5-7]]/D$7</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AG25" s="8">
+        <f>表3[[#This Row],[8-19]]/D$7</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AH25" s="8">
+        <f>表3[[#This Row],[20-25]]/D$8</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AI25" s="8">
+        <f>表3[[#This Row],[26-31]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AJ25" s="8">
+        <f>表3[[#This Row],[32-34]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AK25" s="8">
+        <f>表3[[#This Row],[35-36]]/D$11</f>
+        <v>4.4642857142857144E-2</v>
+      </c>
+      <c r="AL25" s="8">
+        <f>表3[[#This Row],[37-42]]/D$12</f>
+        <v>8.9285714285714281E-3</v>
+      </c>
+      <c r="AM25" s="8">
+        <f>表3[[#This Row],[43-48]]/D$13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:39" x14ac:dyDescent="0.5">
+      <c r="F26">
+        <v>23</v>
+      </c>
+      <c r="G26" s="6">
+        <v>11</v>
+      </c>
+      <c r="H26" s="6">
+        <v>11</v>
+      </c>
+      <c r="I26" s="6">
+        <v>20</v>
+      </c>
+      <c r="J26" s="6">
+        <v>40</v>
+      </c>
+      <c r="K26" s="6">
+        <v>20</v>
+      </c>
+      <c r="L26">
+        <v>10</v>
+      </c>
+      <c r="M26">
+        <v>10</v>
+      </c>
+      <c r="N26">
+        <v>10</v>
+      </c>
+      <c r="O26">
+        <v>8</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="4">
+        <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
+        <v>112</v>
+      </c>
+      <c r="S26" s="2">
+        <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="T26" s="2">
+        <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="U26" s="2">
+        <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="V26" s="8">
+        <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="W26" s="2">
+        <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="X26" s="2">
+        <f>表1[[#This Row],[26-31]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Y26" s="8">
+        <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Z26" s="8">
+        <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="AA26" s="8">
+        <f>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="AB26" s="8">
+        <f>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="8">
+        <f>表3[[#This Row],[1-1]]/D$4</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="AE26" s="8">
+        <f>表3[[#This Row],[2-4]]/D$5</f>
+        <v>3.273809523809524E-2</v>
+      </c>
+      <c r="AF26" s="8">
+        <f>表3[[#This Row],[5-7]]/D$7</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AG26" s="8">
+        <f>表3[[#This Row],[8-19]]/D$7</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AH26" s="8">
+        <f>表3[[#This Row],[20-25]]/D$8</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AI26" s="8">
+        <f>表3[[#This Row],[26-31]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AJ26" s="8">
+        <f>表3[[#This Row],[32-34]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AK26" s="8">
+        <f>表3[[#This Row],[35-36]]/D$11</f>
+        <v>4.4642857142857144E-2</v>
+      </c>
+      <c r="AL26" s="8">
+        <f>表3[[#This Row],[37-42]]/D$12</f>
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="AM26" s="8">
+        <f>表3[[#This Row],[43-48]]/D$13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:39" x14ac:dyDescent="0.5">
+      <c r="F27">
+        <v>24</v>
+      </c>
+      <c r="G27" s="6">
+        <v>11</v>
+      </c>
+      <c r="H27" s="6">
+        <v>11</v>
+      </c>
+      <c r="I27" s="6">
+        <v>20</v>
+      </c>
+      <c r="J27" s="6">
+        <v>40</v>
+      </c>
+      <c r="K27" s="6">
+        <v>20</v>
+      </c>
+      <c r="L27">
+        <v>10</v>
+      </c>
+      <c r="M27">
+        <v>10</v>
+      </c>
+      <c r="N27">
+        <v>10</v>
+      </c>
+      <c r="O27">
+        <v>10</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="4">
+        <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
+        <v>112</v>
+      </c>
+      <c r="S27" s="2">
+        <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="T27" s="2">
+        <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="U27" s="2">
+        <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="V27" s="8">
+        <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="W27" s="2">
+        <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="X27" s="2">
+        <f>表1[[#This Row],[26-31]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Y27" s="8">
+        <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Z27" s="8">
+        <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="AA27" s="8">
+        <f>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="AB27" s="8">
+        <f>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</f>
+        <v>0</v>
+      </c>
+      <c r="AD27" s="8">
+        <f>表3[[#This Row],[1-1]]/D$4</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="AE27" s="8">
+        <f>表3[[#This Row],[2-4]]/D$5</f>
+        <v>3.273809523809524E-2</v>
+      </c>
+      <c r="AF27" s="8">
+        <f>表3[[#This Row],[5-7]]/D$7</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AG27" s="8">
+        <f>表3[[#This Row],[8-19]]/D$7</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AH27" s="8">
+        <f>表3[[#This Row],[20-25]]/D$8</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AI27" s="8">
+        <f>表3[[#This Row],[26-31]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AJ27" s="8">
+        <f>表3[[#This Row],[32-34]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AK27" s="8">
+        <f>表3[[#This Row],[35-36]]/D$11</f>
+        <v>4.4642857142857144E-2</v>
+      </c>
+      <c r="AL27" s="8">
+        <f>表3[[#This Row],[37-42]]/D$12</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AM27" s="8">
+        <f>表3[[#This Row],[43-48]]/D$13</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="2:39" x14ac:dyDescent="0.5">
       <c r="B28" s="5"/>
+      <c r="F28">
+        <v>25</v>
+      </c>
+      <c r="G28" s="6">
+        <v>11</v>
+      </c>
+      <c r="H28" s="6">
+        <v>11</v>
+      </c>
+      <c r="I28" s="6">
+        <v>20</v>
+      </c>
+      <c r="J28" s="6">
+        <v>40</v>
+      </c>
+      <c r="K28" s="6">
+        <v>20</v>
+      </c>
+      <c r="L28">
+        <v>10</v>
+      </c>
+      <c r="M28">
+        <v>10</v>
+      </c>
+      <c r="N28">
+        <v>10</v>
+      </c>
+      <c r="O28">
+        <v>10</v>
+      </c>
+      <c r="P28">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="4">
+        <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
+        <v>112</v>
+      </c>
+      <c r="S28" s="2">
+        <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="T28" s="2">
+        <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="U28" s="2">
+        <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="V28" s="8">
+        <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="W28" s="2">
+        <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="X28" s="2">
+        <f>表1[[#This Row],[26-31]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Y28" s="8">
+        <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Z28" s="8">
+        <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="AA28" s="8">
+        <f>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="AB28" s="8">
+        <f>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</f>
+        <v>1.7857142857142856E-2</v>
+      </c>
+      <c r="AD28" s="8">
+        <f>表3[[#This Row],[1-1]]/D$4</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="AE28" s="8">
+        <f>表3[[#This Row],[2-4]]/D$5</f>
+        <v>3.273809523809524E-2</v>
+      </c>
+      <c r="AF28" s="8">
+        <f>表3[[#This Row],[5-7]]/D$7</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AG28" s="8">
+        <f>表3[[#This Row],[8-19]]/D$7</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AH28" s="8">
+        <f>表3[[#This Row],[20-25]]/D$8</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AI28" s="8">
+        <f>表3[[#This Row],[26-31]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AJ28" s="8">
+        <f>表3[[#This Row],[32-34]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AK28" s="8">
+        <f>表3[[#This Row],[35-36]]/D$11</f>
+        <v>4.4642857142857144E-2</v>
+      </c>
+      <c r="AL28" s="8">
+        <f>表3[[#This Row],[37-42]]/D$12</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AM28" s="8">
+        <f>表3[[#This Row],[43-48]]/D$13</f>
+        <v>2.976190476190476E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:39" x14ac:dyDescent="0.5">
+      <c r="F29">
+        <v>26</v>
+      </c>
+      <c r="G29" s="6">
+        <v>11</v>
+      </c>
+      <c r="H29" s="6">
+        <v>11</v>
+      </c>
+      <c r="I29" s="6">
+        <v>20</v>
+      </c>
+      <c r="J29" s="6">
+        <v>40</v>
+      </c>
+      <c r="K29" s="6">
+        <v>20</v>
+      </c>
+      <c r="L29">
+        <v>10</v>
+      </c>
+      <c r="M29">
+        <v>10</v>
+      </c>
+      <c r="N29">
+        <v>10</v>
+      </c>
+      <c r="O29">
+        <v>10</v>
+      </c>
+      <c r="P29" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="4">
+        <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
+        <v>112</v>
+      </c>
+      <c r="S29" s="2">
+        <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="T29" s="2">
+        <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="U29" s="2">
+        <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="V29" s="8">
+        <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="W29" s="2">
+        <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="X29" s="2">
+        <f>表1[[#This Row],[26-31]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Y29" s="8">
+        <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Z29" s="8">
+        <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="AA29" s="8">
+        <f>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="AB29" s="8">
+        <f>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</f>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="AD29" s="8">
+        <f>表3[[#This Row],[1-1]]/D$4</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="AE29" s="8">
+        <f>表3[[#This Row],[2-4]]/D$5</f>
+        <v>3.273809523809524E-2</v>
+      </c>
+      <c r="AF29" s="8">
+        <f>表3[[#This Row],[5-7]]/D$7</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AG29" s="8">
+        <f>表3[[#This Row],[8-19]]/D$7</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AH29" s="8">
+        <f>表3[[#This Row],[20-25]]/D$8</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AI29" s="8">
+        <f>表3[[#This Row],[26-31]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AJ29" s="8">
+        <f>表3[[#This Row],[32-34]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AK29" s="8">
+        <f>表3[[#This Row],[35-36]]/D$11</f>
+        <v>4.4642857142857144E-2</v>
+      </c>
+      <c r="AL29" s="8">
+        <f>表3[[#This Row],[37-42]]/D$12</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AM29" s="8">
+        <f>表3[[#This Row],[43-48]]/D$13</f>
+        <v>5.9523809523809521E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:39" x14ac:dyDescent="0.5">
+      <c r="F30">
+        <v>27</v>
+      </c>
+      <c r="G30" s="6">
+        <v>11</v>
+      </c>
+      <c r="H30" s="6">
+        <v>11</v>
+      </c>
+      <c r="I30" s="6">
+        <v>20</v>
+      </c>
+      <c r="J30" s="6">
+        <v>40</v>
+      </c>
+      <c r="K30" s="6">
+        <v>20</v>
+      </c>
+      <c r="L30">
+        <v>10</v>
+      </c>
+      <c r="M30">
+        <v>10</v>
+      </c>
+      <c r="N30">
+        <v>10</v>
+      </c>
+      <c r="O30">
+        <v>10</v>
+      </c>
+      <c r="P30">
+        <v>6</v>
+      </c>
+      <c r="Q30" s="4">
+        <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
+        <v>112</v>
+      </c>
+      <c r="S30" s="2">
+        <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="T30" s="2">
+        <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="U30" s="2">
+        <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="V30" s="8">
+        <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="W30" s="2">
+        <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="X30" s="2">
+        <f>表1[[#This Row],[26-31]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Y30" s="8">
+        <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Z30" s="8">
+        <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="AA30" s="8">
+        <f>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="AB30" s="8">
+        <f>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</f>
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="AD30" s="8">
+        <f>表3[[#This Row],[1-1]]/D$4</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="AE30" s="8">
+        <f>表3[[#This Row],[2-4]]/D$5</f>
+        <v>3.273809523809524E-2</v>
+      </c>
+      <c r="AF30" s="8">
+        <f>表3[[#This Row],[5-7]]/D$7</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AG30" s="8">
+        <f>表3[[#This Row],[8-19]]/D$7</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AH30" s="8">
+        <f>表3[[#This Row],[20-25]]/D$8</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AI30" s="8">
+        <f>表3[[#This Row],[26-31]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AJ30" s="8">
+        <f>表3[[#This Row],[32-34]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AK30" s="8">
+        <f>表3[[#This Row],[35-36]]/D$11</f>
+        <v>4.4642857142857144E-2</v>
+      </c>
+      <c r="AL30" s="8">
+        <f>表3[[#This Row],[37-42]]/D$12</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AM30" s="8">
+        <f>表3[[#This Row],[43-48]]/D$13</f>
+        <v>8.9285714285714281E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:39" x14ac:dyDescent="0.5">
+      <c r="F31">
+        <v>28</v>
+      </c>
+      <c r="G31" s="6">
+        <v>11</v>
+      </c>
+      <c r="H31" s="6">
+        <v>11</v>
+      </c>
+      <c r="I31" s="6">
+        <v>20</v>
+      </c>
+      <c r="J31" s="6">
+        <v>40</v>
+      </c>
+      <c r="K31" s="6">
+        <v>20</v>
+      </c>
+      <c r="L31">
+        <v>10</v>
+      </c>
+      <c r="M31">
+        <v>10</v>
+      </c>
+      <c r="N31">
+        <v>10</v>
+      </c>
+      <c r="O31">
+        <v>10</v>
+      </c>
+      <c r="P31">
+        <v>8</v>
+      </c>
+      <c r="Q31" s="4">
+        <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
+        <v>112</v>
+      </c>
+      <c r="S31" s="2">
+        <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="T31" s="2">
+        <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="U31" s="2">
+        <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="V31" s="8">
+        <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="W31" s="2">
+        <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="X31" s="2">
+        <f>表1[[#This Row],[26-31]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Y31" s="8">
+        <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Z31" s="8">
+        <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="AA31" s="8">
+        <f>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="AB31" s="8">
+        <f>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="AD31" s="8">
+        <f>表3[[#This Row],[1-1]]/D$4</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="AE31" s="8">
+        <f>表3[[#This Row],[2-4]]/D$5</f>
+        <v>3.273809523809524E-2</v>
+      </c>
+      <c r="AF31" s="8">
+        <f>表3[[#This Row],[5-7]]/D$7</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AG31" s="8">
+        <f>表3[[#This Row],[8-19]]/D$7</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AH31" s="8">
+        <f>表3[[#This Row],[20-25]]/D$8</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AI31" s="8">
+        <f>表3[[#This Row],[26-31]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AJ31" s="8">
+        <f>表3[[#This Row],[32-34]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AK31" s="8">
+        <f>表3[[#This Row],[35-36]]/D$11</f>
+        <v>4.4642857142857144E-2</v>
+      </c>
+      <c r="AL31" s="8">
+        <f>表3[[#This Row],[37-42]]/D$12</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AM31" s="8">
+        <f>表3[[#This Row],[43-48]]/D$13</f>
+        <v>1.1904761904761904E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:39" x14ac:dyDescent="0.5">
+      <c r="F32">
+        <v>29</v>
+      </c>
+      <c r="G32" s="6">
+        <v>11</v>
+      </c>
+      <c r="H32" s="6">
+        <v>11</v>
+      </c>
+      <c r="I32" s="6">
+        <v>20</v>
+      </c>
+      <c r="J32" s="6">
+        <v>40</v>
+      </c>
+      <c r="K32" s="6">
+        <v>20</v>
+      </c>
+      <c r="L32">
+        <v>10</v>
+      </c>
+      <c r="M32">
+        <v>10</v>
+      </c>
+      <c r="N32">
+        <v>10</v>
+      </c>
+      <c r="O32">
+        <v>10</v>
+      </c>
+      <c r="P32">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="4">
+        <f>SUM(表1[[#This Row],[1-1]:[26-31]])</f>
+        <v>112</v>
+      </c>
+      <c r="S32" s="2">
+        <f>表1[[#This Row],[1-1]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="T32" s="2">
+        <f>表1[[#This Row],[2-4]]/表1[[#This Row],[Sum]]</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="U32" s="2">
+        <f>表1[[#This Row],[5-7]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="V32" s="8">
+        <f>表1[[#This Row],[8-19]]/表1[[#This Row],[Sum]]</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="W32" s="2">
+        <f>表1[[#This Row],[20-25]]/表1[[#This Row],[Sum]]</f>
+        <v>0.17857142857142858</v>
+      </c>
+      <c r="X32" s="2">
+        <f>表1[[#This Row],[26-31]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Y32" s="8">
+        <f>表1[[#This Row],[32-34]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="Z32" s="8">
+        <f>表1[[#This Row],[35-36]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="AA32" s="8">
+        <f>表1[[#This Row],[37-42]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="AB32" s="8">
+        <f>表1[[#This Row],[43-48]]/表1[[#This Row],[Sum]]</f>
+        <v>8.9285714285714288E-2</v>
+      </c>
+      <c r="AD32" s="8">
+        <f>表3[[#This Row],[1-1]]/D$4</f>
+        <v>9.8214285714285712E-2</v>
+      </c>
+      <c r="AE32" s="8">
+        <f>表3[[#This Row],[2-4]]/D$5</f>
+        <v>3.273809523809524E-2</v>
+      </c>
+      <c r="AF32" s="8">
+        <f>表3[[#This Row],[5-7]]/D$7</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AG32" s="8">
+        <f>表3[[#This Row],[8-19]]/D$7</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AH32" s="8">
+        <f>表3[[#This Row],[20-25]]/D$8</f>
+        <v>2.9761904761904764E-2</v>
+      </c>
+      <c r="AI32" s="8">
+        <f>表3[[#This Row],[26-31]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AJ32" s="8">
+        <f>表3[[#This Row],[32-34]]/D$9</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AK32" s="8">
+        <f>表3[[#This Row],[35-36]]/D$11</f>
+        <v>4.4642857142857144E-2</v>
+      </c>
+      <c r="AL32" s="8">
+        <f>表3[[#This Row],[37-42]]/D$12</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+      <c r="AM32" s="8">
+        <f>表3[[#This Row],[43-48]]/D$13</f>
+        <v>1.4880952380952382E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="7:17" x14ac:dyDescent="0.5">
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="Q33" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
